--- a/AAII_Financials/Quarterly/PGID_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGID_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>PGID</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,82 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E7" s="2">
         <v>43769</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -782,8 +786,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -829,8 +836,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,8 +908,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,8 +956,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,8 +1125,9 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1146,8 +1173,11 @@
       <c r="Q17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1193,8 +1223,11 @@
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1259,8 +1293,11 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1306,8 +1343,11 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1323,8 +1363,8 @@
       <c r="G22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1353,8 +1393,11 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1400,8 +1443,11 @@
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1493,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,8 +1543,11 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1541,8 +1593,11 @@
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1588,8 +1643,11 @@
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1823,8 +1893,11 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1870,8 +1943,11 @@
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,8 +1993,11 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1964,60 +2043,66 @@
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E38" s="2">
         <v>43769</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,8 +2140,9 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2080,11 +2167,11 @@
       <c r="J41" s="3">
         <v>0</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
@@ -2101,8 +2188,11 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2238,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2195,8 +2288,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2242,37 +2338,40 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
@@ -2289,8 +2388,11 @@
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2336,8 +2438,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2383,8 +2488,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2430,8 +2538,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2588,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,8 +2788,11 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2712,8 +2838,11 @@
       <c r="Q54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,16 +2880,17 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
+      <c r="E57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
@@ -2797,8 +2928,11 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2830,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>400</v>
       </c>
       <c r="O58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="P58" s="3">
         <v>300</v>
@@ -2844,8 +2978,11 @@
       <c r="Q58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2877,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="M59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N59" s="3">
         <v>100</v>
@@ -2891,8 +3028,11 @@
       <c r="Q59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2924,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="M60" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="N60" s="3">
         <v>400</v>
@@ -2938,8 +3078,11 @@
       <c r="Q60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,8 +3128,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3032,8 +3178,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,8 +3328,11 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3206,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="M66" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="N66" s="3">
         <v>400</v>
@@ -3220,8 +3378,11 @@
       <c r="Q66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,8 +3598,11 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3474,8 +3648,11 @@
       <c r="Q72" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,8 +3798,11 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3648,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="M76" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="N76" s="3">
         <v>-400</v>
@@ -3662,8 +3848,11 @@
       <c r="Q76" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,60 +3898,66 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43861</v>
+      </c>
+      <c r="E80" s="2">
         <v>43769</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3808,8 +4003,11 @@
       <c r="Q81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,8 +4323,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4156,8 +4373,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,8 +4395,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4222,8 +4443,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4543,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4363,8 +4593,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,22 +4813,25 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
         <v>0</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
+      <c r="E100" s="3">
+        <v>0</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
@@ -4617,8 +4863,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,8 +4913,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4709,6 +4961,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGID_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGID_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
   <si>
     <t>PGID</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,85 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E7" s="2">
         <v>43861</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43769</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -789,8 +792,11 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -839,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -889,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -959,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1059,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1109,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,8 +1151,9 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1176,8 +1202,11 @@
       <c r="R17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1226,8 +1255,11 @@
       <c r="R18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1296,8 +1329,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1346,8 +1382,11 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1366,8 +1405,8 @@
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1396,8 +1435,11 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1446,8 +1488,11 @@
       <c r="R23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1496,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,8 +1594,11 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1596,8 +1647,11 @@
       <c r="R26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1646,8 +1700,11 @@
       <c r="R27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1896,8 +1965,11 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1946,8 +2018,11 @@
       <c r="R33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,8 +2071,11 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2046,63 +2124,69 @@
       <c r="R35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E38" s="2">
         <v>43861</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43769</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,8 +2226,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2170,11 +2256,11 @@
       <c r="K41" s="3">
         <v>0</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -2191,8 +2277,11 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2291,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2341,8 +2436,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2367,14 +2465,14 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3" t="s">
         <v>4</v>
@@ -2391,8 +2489,11 @@
       <c r="R45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2441,8 +2542,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2491,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2541,8 +2648,11 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2591,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2741,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,8 +2913,11 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2841,8 +2966,11 @@
       <c r="R54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2892,8 +3022,8 @@
       <c r="E57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
+      <c r="F57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G57" s="3">
         <v>0</v>
@@ -2931,13 +3061,16 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -2967,13 +3100,13 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>400</v>
       </c>
       <c r="P58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q58" s="3">
         <v>300</v>
@@ -2981,8 +3114,11 @@
       <c r="R58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3017,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="N59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O59" s="3">
         <v>100</v>
@@ -3031,13 +3167,16 @@
       <c r="R59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E60" s="3">
         <v>0</v>
@@ -3067,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="N60" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O60" s="3">
         <v>400</v>
@@ -3081,8 +3220,11 @@
       <c r="R60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3131,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3181,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,13 +3485,16 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E66" s="3">
         <v>0</v>
@@ -3367,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="N66" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="O66" s="3">
         <v>400</v>
@@ -3381,8 +3538,11 @@
       <c r="R66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,13 +3771,16 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="E72" s="3">
         <v>-600</v>
@@ -3651,8 +3824,11 @@
       <c r="R72" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,8 +3983,11 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3837,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="N76" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="O76" s="3">
         <v>-400</v>
@@ -3851,8 +4036,11 @@
       <c r="R76" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,63 +4089,69 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43951</v>
+      </c>
+      <c r="E80" s="2">
         <v>43861</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43769</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4006,8 +4200,11 @@
       <c r="R81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4076,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,8 +4539,11 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4376,8 +4592,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4446,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4596,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4827,14 +5072,14 @@
       <c r="E100" s="3">
         <v>0</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
+      <c r="F100" s="3">
+        <v>0</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -4866,8 +5111,11 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4916,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4964,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGID_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGID_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
   <si>
     <t>PGID</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E7" s="2">
         <v>43951</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43861</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43769</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -795,8 +799,11 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -848,8 +855,11 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1178,9 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1205,8 +1232,11 @@
       <c r="S17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1258,8 +1288,11 @@
       <c r="S18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1385,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1408,8 +1448,8 @@
       <c r="I22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1438,8 +1478,11 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1491,8 +1534,11 @@
       <c r="S23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,8 +1646,11 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1650,8 +1702,11 @@
       <c r="S26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1703,8 +1758,11 @@
       <c r="S27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,8 +2038,11 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2021,8 +2094,11 @@
       <c r="S33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,8 +2150,11 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2127,66 +2206,72 @@
       <c r="S35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E38" s="2">
         <v>43951</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43861</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43769</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2259,11 +2346,11 @@
       <c r="L41" s="3">
         <v>0</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
@@ -2280,8 +2367,11 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2386,8 +2479,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2439,8 +2535,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2468,14 +2567,14 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
       </c>
       <c r="O45" s="3" t="s">
         <v>4</v>
@@ -2492,8 +2591,11 @@
       <c r="S45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2545,8 +2647,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,8 +3039,11 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2969,8 +3095,11 @@
       <c r="S54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3025,8 +3156,8 @@
       <c r="F57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -3064,8 +3195,11 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3073,7 +3207,7 @@
         <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -3103,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>400</v>
       </c>
       <c r="Q58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="R58" s="3">
         <v>300</v>
@@ -3117,8 +3251,11 @@
       <c r="S58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3156,7 +3293,7 @@
         <v>0</v>
       </c>
       <c r="O59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P59" s="3">
         <v>100</v>
@@ -3170,8 +3307,11 @@
       <c r="S59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3179,7 +3319,7 @@
         <v>100</v>
       </c>
       <c r="E60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F60" s="3">
         <v>0</v>
@@ -3209,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="O60" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="P60" s="3">
         <v>400</v>
@@ -3223,8 +3363,11 @@
       <c r="S60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,8 +3643,11 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3497,7 +3655,7 @@
         <v>100</v>
       </c>
       <c r="E66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F66" s="3">
         <v>0</v>
@@ -3527,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="O66" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="P66" s="3">
         <v>400</v>
@@ -3541,8 +3699,11 @@
       <c r="S66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,8 +3945,11 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3783,7 +3957,7 @@
         <v>-700</v>
       </c>
       <c r="E72" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="F72" s="3">
         <v>-600</v>
@@ -3827,8 +4001,11 @@
       <c r="S72" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,13 +4169,16 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E76" s="3">
         <v>0</v>
@@ -4025,7 +4211,7 @@
         <v>0</v>
       </c>
       <c r="O76" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="P76" s="3">
         <v>-400</v>
@@ -4039,8 +4225,11 @@
       <c r="S76" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,66 +4281,72 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44043</v>
+      </c>
+      <c r="E80" s="2">
         <v>43951</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43861</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43769</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4203,8 +4398,11 @@
       <c r="S81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4595,8 +4812,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5075,14 +5321,14 @@
       <c r="F100" s="3">
         <v>0</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
+      <c r="G100" s="3">
+        <v>0</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -5114,8 +5360,11 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5218,6 +5470,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGID_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGID_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>PGID</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,97 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F7" s="2">
         <v>44043</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43951</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43861</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43769</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +810,14 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +872,14 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +934,14 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +962,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1020,14 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1082,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1144,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1206,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1231,10 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1235,8 +1289,14 @@
       <c r="T17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1291,8 +1351,14 @@
       <c r="T18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1379,10 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1369,8 +1437,14 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1425,37 +1499,43 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1481,8 +1561,14 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1537,8 +1623,14 @@
       <c r="T23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1685,14 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,8 +1747,14 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1705,8 +1809,14 @@
       <c r="T26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1761,8 +1871,14 @@
       <c r="T27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1933,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1995,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2057,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2119,14 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2041,8 +2181,14 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2097,8 +2243,14 @@
       <c r="T33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,8 +2305,14 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2209,69 +2367,81 @@
       <c r="T35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F38" s="2">
         <v>44043</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43951</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43861</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43769</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2462,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2486,10 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2349,14 +2523,14 @@
       <c r="M41" s="3">
         <v>0</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>4</v>
+      <c r="N41" s="3">
+        <v>0</v>
       </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
+      <c r="P41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
@@ -2370,8 +2544,14 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2606,14 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2668,14 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2730,14 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2570,8 +2768,8 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>4</v>
+      <c r="M45" s="3">
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2579,8 +2777,8 @@
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
+      <c r="P45" s="3">
+        <v>0</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>4</v>
@@ -2594,8 +2792,14 @@
       <c r="T45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2650,8 +2854,14 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2916,14 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2762,8 +2978,14 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +3040,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3102,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3164,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3226,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,8 +3288,14 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3098,8 +3350,14 @@
       <c r="T54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3378,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,22 +3402,24 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
+      <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -3198,8 +3460,14 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3210,10 +3478,10 @@
         <v>100</v>
       </c>
       <c r="F58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -3240,22 +3508,28 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>400</v>
-      </c>
-      <c r="R58" s="3">
-        <v>300</v>
-      </c>
-      <c r="S58" s="3">
-        <v>300</v>
       </c>
       <c r="T58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>300</v>
+      </c>
+      <c r="V58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3296,10 +3570,10 @@
         <v>0</v>
       </c>
       <c r="P59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R59" s="3">
         <v>100</v>
@@ -3310,8 +3584,14 @@
       <c r="T59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>100</v>
+      </c>
+      <c r="V59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3322,10 +3602,10 @@
         <v>100</v>
       </c>
       <c r="F60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H60" s="3">
         <v>0</v>
@@ -3352,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="P60" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="R60" s="3">
         <v>400</v>
@@ -3366,8 +3646,14 @@
       <c r="T60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>400</v>
+      </c>
+      <c r="V60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3708,14 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3770,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3832,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3894,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,8 +3956,14 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3658,10 +3974,10 @@
         <v>100</v>
       </c>
       <c r="F66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H66" s="3">
         <v>0</v>
@@ -3688,10 +4004,10 @@
         <v>0</v>
       </c>
       <c r="P66" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Q66" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="R66" s="3">
         <v>400</v>
@@ -3702,8 +4018,14 @@
       <c r="T66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>400</v>
+      </c>
+      <c r="V66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4046,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4104,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4166,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4228,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,8 +4290,14 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3960,10 +4308,10 @@
         <v>-700</v>
       </c>
       <c r="F72" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="G72" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="H72" s="3">
         <v>-600</v>
@@ -4004,8 +4352,14 @@
       <c r="T72" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V72" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4414,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4476,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,8 +4538,14 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4181,10 +4553,10 @@
         <v>-100</v>
       </c>
       <c r="E76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G76" s="3">
         <v>0</v>
@@ -4214,10 +4586,10 @@
         <v>0</v>
       </c>
       <c r="P76" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="Q76" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="R76" s="3">
         <v>-400</v>
@@ -4228,8 +4600,14 @@
       <c r="T76" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V76" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,69 +4662,81 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44227</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44135</v>
+      </c>
+      <c r="F80" s="2">
         <v>44043</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43951</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43861</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43769</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4401,8 +4791,14 @@
       <c r="T81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4819,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4877,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4939,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5001,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5063,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5125,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +5187,14 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4815,8 +5249,14 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5277,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5335,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5397,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5459,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5061,8 +5521,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5549,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5607,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5669,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5731,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5793,14 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5324,17 +5816,17 @@
       <c r="G100" s="3">
         <v>0</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -5363,8 +5855,14 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5917,14 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5473,6 +5977,12 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGID_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGID_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
   <si>
     <t>PGID</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,97 +665,100 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E7" s="2">
         <v>44227</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44135</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44043</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43951</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43861</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43769</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -816,8 +819,11 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -878,8 +884,11 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,8 +949,11 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1026,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1150,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1212,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,8 +1258,9 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1295,8 +1321,11 @@
       <c r="V17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1357,8 +1386,11 @@
       <c r="V18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1443,8 +1476,11 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1505,8 +1541,11 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1531,14 +1570,14 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -1567,8 +1606,11 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1629,8 +1671,11 @@
       <c r="V23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1691,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,8 +1801,11 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1815,8 +1866,11 @@
       <c r="V26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1877,8 +1931,11 @@
       <c r="V27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2187,8 +2256,11 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2249,8 +2321,11 @@
       <c r="V33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,8 +2386,11 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2373,75 +2451,81 @@
       <c r="V35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E38" s="2">
         <v>44227</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44135</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44043</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43951</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43861</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43769</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,8 +2573,9 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2529,11 +2615,11 @@
       <c r="O41" s="3">
         <v>0</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>0</v>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
@@ -2550,8 +2636,11 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,8 +2701,11 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2674,8 +2766,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2736,8 +2831,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2774,14 +2872,14 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-      <c r="O45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
       </c>
       <c r="R45" s="3" t="s">
         <v>4</v>
@@ -2798,8 +2896,11 @@
       <c r="V45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2860,8 +2961,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2922,8 +3026,11 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2984,8 +3091,11 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3046,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3232,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,8 +3416,11 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3356,8 +3481,11 @@
       <c r="V54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,8 +3533,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3466,8 +3596,11 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3484,7 +3617,7 @@
         <v>100</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -3514,13 +3647,13 @@
         <v>0</v>
       </c>
       <c r="R58" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="S58" s="3">
         <v>400</v>
       </c>
       <c r="T58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="U58" s="3">
         <v>300</v>
@@ -3528,8 +3661,11 @@
       <c r="V58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3576,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="R59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S59" s="3">
         <v>100</v>
@@ -3590,8 +3726,11 @@
       <c r="V59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3608,7 +3747,7 @@
         <v>100</v>
       </c>
       <c r="H60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I60" s="3">
         <v>0</v>
@@ -3638,7 +3777,7 @@
         <v>0</v>
       </c>
       <c r="R60" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="S60" s="3">
         <v>400</v>
@@ -3652,8 +3791,11 @@
       <c r="V60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3714,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3776,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,8 +4116,11 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3980,7 +4137,7 @@
         <v>100</v>
       </c>
       <c r="H66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I66" s="3">
         <v>0</v>
@@ -4010,7 +4167,7 @@
         <v>0</v>
       </c>
       <c r="R66" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="S66" s="3">
         <v>400</v>
@@ -4024,8 +4181,11 @@
       <c r="V66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,8 +4466,11 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4314,7 +4487,7 @@
         <v>-700</v>
       </c>
       <c r="H72" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="I72" s="3">
         <v>-600</v>
@@ -4358,8 +4531,11 @@
       <c r="V72" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,8 +4726,11 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4559,7 +4744,7 @@
         <v>-100</v>
       </c>
       <c r="G76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H76" s="3">
         <v>0</v>
@@ -4592,7 +4777,7 @@
         <v>0</v>
       </c>
       <c r="R76" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="S76" s="3">
         <v>-400</v>
@@ -4606,8 +4791,11 @@
       <c r="V76" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W76" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,75 +4856,81 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44316</v>
+      </c>
+      <c r="E80" s="2">
         <v>44227</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44135</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44043</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43951</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43861</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43769</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4797,8 +4991,11 @@
       <c r="V81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4883,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,8 +5406,11 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5255,8 +5471,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5341,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,8 +5691,11 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5527,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,8 +6041,11 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5822,14 +6067,14 @@
       <c r="I100" s="3">
         <v>0</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -5861,8 +6106,11 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5923,8 +6171,11 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5983,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGID_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGID_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="92">
   <si>
     <t>PGID</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,123 +665,127 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E7" s="2">
         <v>44316</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44227</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44135</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44043</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43951</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43861</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43769</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
+      <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
@@ -822,13 +826,16 @@
       <c r="W8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>0</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>4</v>
@@ -839,8 +846,8 @@
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
+      <c r="H9" s="3">
+        <v>200</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
@@ -887,13 +894,16 @@
       <c r="W9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>100</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>4</v>
@@ -904,8 +914,8 @@
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
+      <c r="H10" s="3">
+        <v>200</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
@@ -952,8 +962,11 @@
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,31 +1124,34 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1172,31 +1192,34 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,13 +1285,14 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E17" s="3">
         <v>0</v>
@@ -1277,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="3">
-        <v>0</v>
+        <v>1200</v>
       </c>
       <c r="I17" s="3">
         <v>0</v>
@@ -1324,31 +1351,34 @@
       <c r="W17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
+      <c r="D18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>0</v>
+        <v>-800</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
@@ -1389,8 +1419,11 @@
       <c r="W18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,31 +1447,32 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
+      <c r="D20" s="3">
+        <v>100</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1479,8 +1513,11 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1544,8 +1581,11 @@
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1573,14 +1613,14 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1609,13 +1649,16 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -1627,7 +1670,7 @@
         <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="I23" s="3">
         <v>0</v>
@@ -1674,8 +1717,11 @@
       <c r="W23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1785,11 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,13 +1853,16 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -1822,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="I26" s="3">
         <v>0</v>
@@ -1869,13 +1921,16 @@
       <c r="W26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -1887,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="I27" s="3">
         <v>0</v>
@@ -1934,8 +1989,11 @@
       <c r="W27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,31 +2261,34 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
+      <c r="D32" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -2259,13 +2329,16 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
         <v>0</v>
@@ -2277,7 +2350,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="I33" s="3">
         <v>0</v>
@@ -2324,8 +2397,11 @@
       <c r="W33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,13 +2465,16 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
         <v>0</v>
@@ -2407,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="I35" s="3">
         <v>0</v>
@@ -2454,78 +2533,84 @@
       <c r="W35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E38" s="2">
         <v>44316</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44227</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44135</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44043</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43951</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43861</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43769</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,13 +2660,14 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2618,11 +2705,11 @@
       <c r="P41" s="3">
         <v>0</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R41" s="3">
-        <v>0</v>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
@@ -2639,8 +2726,11 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,31 +2794,34 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -2769,31 +2862,34 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
-        <v>0</v>
-      </c>
-      <c r="H44" s="3">
-        <v>0</v>
-      </c>
-      <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3">
-        <v>0</v>
+        <v>800</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -2834,31 +2930,34 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2875,14 +2974,14 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
       </c>
       <c r="S45" s="3" t="s">
         <v>4</v>
@@ -2899,13 +2998,16 @@
       <c r="W45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
@@ -2964,8 +3066,11 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,31 +3134,34 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -3094,31 +3202,34 @@
       <c r="W48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3406,11 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,13 +3542,16 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="E54" s="3">
         <v>0</v>
@@ -3484,8 +3610,11 @@
       <c r="W54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,31 +3664,32 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
         <v>0</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
+      <c r="E57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K57" s="3">
         <v>0</v>
@@ -3599,8 +3730,11 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3620,7 +3754,7 @@
         <v>100</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -3650,13 +3784,13 @@
         <v>0</v>
       </c>
       <c r="S58" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="T58" s="3">
         <v>400</v>
       </c>
       <c r="U58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="V58" s="3">
         <v>300</v>
@@ -3664,8 +3798,11 @@
       <c r="W58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3715,7 +3852,7 @@
         <v>0</v>
       </c>
       <c r="S59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T59" s="3">
         <v>100</v>
@@ -3729,8 +3866,11 @@
       <c r="W59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3750,7 +3890,7 @@
         <v>100</v>
       </c>
       <c r="I60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J60" s="3">
         <v>0</v>
@@ -3780,7 +3920,7 @@
         <v>0</v>
       </c>
       <c r="S60" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="T60" s="3">
         <v>400</v>
@@ -3794,8 +3934,11 @@
       <c r="W60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3859,31 +4002,34 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>0</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,8 +4274,11 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4140,7 +4298,7 @@
         <v>100</v>
       </c>
       <c r="I66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J66" s="3">
         <v>0</v>
@@ -4170,7 +4328,7 @@
         <v>0</v>
       </c>
       <c r="S66" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="T66" s="3">
         <v>400</v>
@@ -4184,8 +4342,11 @@
       <c r="W66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,13 +4640,16 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-700</v>
+        <v>-4300</v>
       </c>
       <c r="E72" s="3">
         <v>-700</v>
@@ -4490,7 +4664,7 @@
         <v>-700</v>
       </c>
       <c r="I72" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="J72" s="3">
         <v>-600</v>
@@ -4534,8 +4708,11 @@
       <c r="W72" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,13 +4912,16 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-100</v>
+        <v>1600</v>
       </c>
       <c r="E76" s="3">
         <v>-100</v>
@@ -4747,7 +4933,7 @@
         <v>-100</v>
       </c>
       <c r="H76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I76" s="3">
         <v>0</v>
@@ -4780,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="S76" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="T76" s="3">
         <v>-400</v>
@@ -4794,8 +4980,11 @@
       <c r="W76" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X76" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,83 +5048,89 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44408</v>
+      </c>
+      <c r="E80" s="2">
         <v>44316</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44227</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44135</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44043</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43951</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43861</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43769</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
         <v>0</v>
@@ -4947,7 +5142,7 @@
         <v>0</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="I81" s="3">
         <v>0</v>
@@ -4994,8 +5189,11 @@
       <c r="W81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,13 +5623,16 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -5474,8 +5691,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5719,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,8 +5921,11 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,13 +6287,16 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
@@ -6062,7 +6308,7 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -6070,14 +6316,14 @@
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -6109,8 +6355,11 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,8 +6423,11 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6237,6 +6489,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGID_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGID_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="92">
   <si>
     <t>PGID</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,134 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E7" s="2">
         <v>44408</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44316</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44227</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44135</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44043</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43951</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43861</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43769</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3">
         <v>400</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
+      <c r="K8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L8" s="3">
         <v>0</v>
@@ -829,8 +833,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -846,8 +853,8 @@
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="3">
-        <v>200</v>
+      <c r="H9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
@@ -897,13 +904,16 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>100</v>
+      <c r="D10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>4</v>
@@ -914,8 +924,8 @@
       <c r="G10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="3">
-        <v>200</v>
+      <c r="H10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
@@ -965,8 +975,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1004,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1073,11 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,17 +1144,20 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1153,8 +1173,8 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1195,13 +1215,16 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>4</v>
@@ -1212,8 +1235,8 @@
       <c r="G15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="3">
-        <v>100</v>
+      <c r="H15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>4</v>
@@ -1221,8 +1244,8 @@
       <c r="J15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1263,8 +1286,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,16 +1312,17 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F17" s="3">
         <v>0</v>
@@ -1304,10 +1331,10 @@
         <v>0</v>
       </c>
       <c r="H17" s="3">
-        <v>1200</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3">
-        <v>0</v>
+        <v>900</v>
       </c>
       <c r="J17" s="3">
         <v>0</v>
@@ -1354,16 +1381,19 @@
       <c r="X17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-100</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>4</v>
@@ -1371,17 +1401,17 @@
       <c r="G18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="3">
-        <v>-800</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
+      <c r="H18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-500</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
+      <c r="K18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
@@ -1422,8 +1452,11 @@
       <c r="X18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,16 +1481,17 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>100</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>4</v>
@@ -1465,17 +1499,17 @@
       <c r="G20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
+      <c r="H20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-300</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
+      <c r="K20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L20" s="3">
         <v>0</v>
@@ -1516,8 +1550,11 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1584,8 +1621,11 @@
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1616,14 +1656,14 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
+      <c r="M22" s="3">
+        <v>0</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1652,17 +1692,20 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
         <v>0</v>
       </c>
@@ -1670,11 +1713,11 @@
         <v>0</v>
       </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-800</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
@@ -1720,8 +1763,11 @@
       <c r="X23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1834,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,17 +1905,20 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
         <v>0</v>
       </c>
@@ -1874,11 +1926,11 @@
         <v>0</v>
       </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
@@ -1924,17 +1976,20 @@
       <c r="X26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>100</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
         <v>0</v>
       </c>
@@ -1942,11 +1997,11 @@
         <v>0</v>
       </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
@@ -1992,8 +2047,11 @@
       <c r="X27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2118,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2189,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2260,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,16 +2331,19 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-100</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>4</v>
@@ -2281,17 +2351,17 @@
       <c r="G32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
+      <c r="H32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="3">
+        <v>300</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
+      <c r="K32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -2332,17 +2402,20 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>100</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
         <v>0</v>
       </c>
@@ -2350,11 +2423,11 @@
         <v>0</v>
       </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
@@ -2400,8 +2473,11 @@
       <c r="X33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,17 +2544,20 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>100</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
         <v>0</v>
       </c>
@@ -2486,11 +2565,11 @@
         <v>0</v>
       </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
@@ -2536,81 +2615,87 @@
       <c r="X35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E38" s="2">
         <v>44408</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44316</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44227</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44135</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44043</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43951</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43861</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43769</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2720,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,17 +2747,18 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>700</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
@@ -2708,11 +2795,11 @@
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S41" s="3">
-        <v>0</v>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T41" s="3">
         <v>0</v>
@@ -2729,8 +2816,11 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,16 +2887,19 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
+      <c r="E43" s="3">
+        <v>0</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>4</v>
@@ -2823,8 +2916,8 @@
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -2865,16 +2958,19 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
         <v>800</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>4</v>
+      <c r="E44" s="3">
+        <v>800</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>4</v>
@@ -2891,8 +2987,8 @@
       <c r="J44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K44" s="3">
-        <v>0</v>
+      <c r="K44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -2933,16 +3029,19 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
+      <c r="E45" s="3">
+        <v>0</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>4</v>
@@ -2959,8 +3058,8 @@
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2977,14 +3076,14 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R45" s="3">
-        <v>0</v>
-      </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>4</v>
@@ -3001,17 +3100,20 @@
       <c r="X45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E46" s="3">
         <v>900</v>
       </c>
-      <c r="E46" s="3">
-        <v>0</v>
-      </c>
       <c r="F46" s="3">
         <v>0</v>
       </c>
@@ -3069,8 +3171,11 @@
       <c r="X46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,17 +3242,20 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3">
         <v>500</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3163,8 +3271,8 @@
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -3205,16 +3313,19 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>200</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
+      <c r="E49" s="3">
+        <v>200</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>4</v>
@@ -3231,8 +3342,8 @@
       <c r="J49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L49" s="3">
         <v>0</v>
@@ -3273,8 +3384,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3455,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3526,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3597,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,17 +3668,20 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E54" s="3">
         <v>1700</v>
       </c>
-      <c r="E54" s="3">
-        <v>0</v>
-      </c>
       <c r="F54" s="3">
         <v>0</v>
       </c>
@@ -3613,8 +3739,11 @@
       <c r="X54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3768,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,16 +3795,17 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
         <v>0</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>4</v>
+      <c r="E57" s="3">
+        <v>0</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>4</v>
@@ -3691,8 +3822,8 @@
       <c r="J57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
+      <c r="K57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -3733,8 +3864,11 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3757,7 +3891,7 @@
         <v>100</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3787,13 +3921,13 @@
         <v>0</v>
       </c>
       <c r="T58" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="U58" s="3">
         <v>400</v>
       </c>
       <c r="V58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="W58" s="3">
         <v>300</v>
@@ -3801,8 +3935,11 @@
       <c r="X58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3855,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="T59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U59" s="3">
         <v>100</v>
@@ -3869,8 +4006,11 @@
       <c r="X59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3893,7 +4033,7 @@
         <v>100</v>
       </c>
       <c r="J60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K60" s="3">
         <v>0</v>
@@ -3923,7 +4063,7 @@
         <v>0</v>
       </c>
       <c r="T60" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="U60" s="3">
         <v>400</v>
@@ -3937,8 +4077,11 @@
       <c r="X60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,16 +4148,19 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>0</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
+      <c r="E62" s="3">
+        <v>0</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>4</v>
@@ -4031,8 +4177,8 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -4073,8 +4219,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4290,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4361,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,8 +4432,11 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4301,7 +4459,7 @@
         <v>100</v>
       </c>
       <c r="J66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K66" s="3">
         <v>0</v>
@@ -4331,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="T66" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="U66" s="3">
         <v>400</v>
@@ -4345,8 +4503,11 @@
       <c r="X66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4532,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4601,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4672,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4743,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,16 +4814,19 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4300</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-700</v>
       </c>
       <c r="F72" s="3">
         <v>-700</v>
@@ -4667,7 +4841,7 @@
         <v>-700</v>
       </c>
       <c r="J72" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="K72" s="3">
         <v>-600</v>
@@ -4711,8 +4885,11 @@
       <c r="X72" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4956,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5027,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,16 +5098,19 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E76" s="3">
         <v>1600</v>
-      </c>
-      <c r="E76" s="3">
-        <v>-100</v>
       </c>
       <c r="F76" s="3">
         <v>-100</v>
@@ -4936,7 +5122,7 @@
         <v>-100</v>
       </c>
       <c r="I76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J76" s="3">
         <v>0</v>
@@ -4969,7 +5155,7 @@
         <v>0</v>
       </c>
       <c r="T76" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="U76" s="3">
         <v>-400</v>
@@ -4983,8 +5169,11 @@
       <c r="X76" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,90 +5240,96 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44500</v>
+      </c>
+      <c r="E80" s="2">
         <v>44408</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44316</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44227</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44135</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44043</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43951</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43861</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43769</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>100</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
         <v>0</v>
       </c>
@@ -5142,11 +5337,11 @@
         <v>0</v>
       </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
@@ -5192,8 +5387,11 @@
       <c r="X81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,31 +5416,32 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -5286,8 +5485,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5556,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5627,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5698,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5769,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,17 +5840,20 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
@@ -5694,8 +5911,11 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5940,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6009,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6080,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,31 +6151,34 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -5992,8 +6222,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6251,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6320,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6391,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6462,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,17 +6533,20 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -6308,25 +6554,25 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -6358,8 +6604,11 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6675,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6492,6 +6744,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGID_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGID_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
   <si>
     <t>PGID</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,108 +665,112 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E7" s="2">
         <v>44500</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44408</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44316</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44227</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44135</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44043</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43951</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43861</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43769</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -774,28 +778,28 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>100</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3">
         <v>400</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
+      <c r="L8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M8" s="3">
         <v>0</v>
@@ -836,16 +840,19 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
+      <c r="E9" s="3">
+        <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
@@ -907,16 +914,19 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
+      <c r="E10" s="3">
+        <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
@@ -978,8 +988,11 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,8 +1018,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1076,8 +1090,11 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,20 +1164,23 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1176,8 +1196,8 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1218,16 +1238,19 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>4</v>
+      <c r="E15" s="3">
+        <v>0</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>4</v>
@@ -1247,8 +1270,8 @@
       <c r="K15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
+      <c r="L15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1289,8 +1312,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,8 +1339,9 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1322,11 +1349,11 @@
         <v>100</v>
       </c>
       <c r="E17" s="3">
+        <v>100</v>
+      </c>
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
         <v>0</v>
       </c>
@@ -1334,11 +1361,11 @@
         <v>0</v>
       </c>
       <c r="I17" s="3">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3">
         <v>900</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
@@ -1384,8 +1411,11 @@
       <c r="Y17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1395,8 +1425,8 @@
       <c r="E18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>4</v>
+      <c r="F18" s="3">
+        <v>-100</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>4</v>
@@ -1404,17 +1434,17 @@
       <c r="H18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
+      <c r="L18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M18" s="3">
         <v>0</v>
@@ -1455,8 +1485,11 @@
       <c r="Y18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,8 +1515,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1491,10 +1525,10 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>4</v>
@@ -1502,17 +1536,17 @@
       <c r="H20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
+      <c r="L20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
@@ -1553,16 +1587,19 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>200</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
@@ -1624,8 +1661,11 @@
       <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1659,14 +1699,14 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1695,20 +1735,23 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E23" s="3">
         <v>100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
         <v>0</v>
       </c>
@@ -1716,11 +1759,11 @@
         <v>0</v>
       </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-800</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
@@ -1766,8 +1809,11 @@
       <c r="Y23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1837,8 +1883,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,20 +1957,23 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E26" s="3">
         <v>100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
         <v>0</v>
       </c>
@@ -1929,11 +1981,11 @@
         <v>0</v>
       </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
@@ -1979,20 +2031,23 @@
       <c r="Y26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E27" s="3">
         <v>100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
         <v>0</v>
       </c>
@@ -2000,11 +2055,11 @@
         <v>0</v>
       </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
@@ -2050,8 +2105,11 @@
       <c r="Y27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2179,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2253,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2327,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,8 +2401,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2343,10 +2413,10 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>4</v>
+        <v>-200</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>4</v>
@@ -2354,17 +2424,17 @@
       <c r="H32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
+      <c r="L32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -2405,20 +2475,23 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E33" s="3">
         <v>100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
         <v>0</v>
       </c>
@@ -2426,11 +2499,11 @@
         <v>0</v>
       </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
@@ -2476,8 +2549,11 @@
       <c r="Y33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,20 +2623,23 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E35" s="3">
         <v>100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
         <v>0</v>
       </c>
@@ -2568,11 +2647,11 @@
         <v>0</v>
       </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
@@ -2618,84 +2697,90 @@
       <c r="Y35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E38" s="2">
         <v>44500</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44408</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44316</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44227</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44135</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44043</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43951</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43861</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43769</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2806,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,20 +2834,21 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
         <v>700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
@@ -2798,11 +2885,11 @@
       <c r="R41" s="3">
         <v>0</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T41" s="3">
-        <v>0</v>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
@@ -2819,8 +2906,11 @@
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,8 +2980,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2901,8 +2994,8 @@
       <c r="E43" s="3">
         <v>0</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
+      <c r="F43" s="3">
+        <v>0</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>4</v>
@@ -2919,8 +3012,8 @@
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M43" s="3">
         <v>0</v>
@@ -2961,8 +3054,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2972,8 +3068,8 @@
       <c r="E44" s="3">
         <v>800</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
+      <c r="F44" s="3">
+        <v>800</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>4</v>
@@ -2990,8 +3086,8 @@
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L44" s="3">
-        <v>0</v>
+      <c r="L44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -3032,8 +3128,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3043,8 +3142,8 @@
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>4</v>
@@ -3061,8 +3160,8 @@
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -3079,14 +3178,14 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
       </c>
       <c r="U45" s="3" t="s">
         <v>4</v>
@@ -3103,20 +3202,23 @@
       <c r="Y45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E46" s="3">
         <v>1500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>900</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
@@ -3174,8 +3276,11 @@
       <c r="Y46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,8 +3350,11 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3254,11 +3362,11 @@
         <v>0</v>
       </c>
       <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
         <v>500</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3274,8 +3382,8 @@
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L48" s="3">
-        <v>0</v>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
@@ -3316,19 +3424,22 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E49" s="3">
         <v>200</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
+      <c r="F49" s="3">
+        <v>200</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>4</v>
@@ -3345,8 +3456,8 @@
       <c r="K49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="L49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -3387,8 +3498,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3572,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,31 +3646,34 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -3600,8 +3720,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,20 +3794,23 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E54" s="3">
         <v>1800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1700</v>
       </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
       <c r="G54" s="3">
         <v>0</v>
       </c>
@@ -3742,8 +3868,11 @@
       <c r="Y54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3898,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,8 +3926,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3807,8 +3938,8 @@
       <c r="E57" s="3">
         <v>0</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
+      <c r="F57" s="3">
+        <v>0</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>4</v>
@@ -3825,8 +3956,8 @@
       <c r="K57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
+      <c r="L57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M57" s="3">
         <v>0</v>
@@ -3867,13 +3998,16 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
         <v>100</v>
@@ -3894,7 +4028,7 @@
         <v>100</v>
       </c>
       <c r="K58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -3924,13 +4058,13 @@
         <v>0</v>
       </c>
       <c r="U58" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="V58" s="3">
         <v>400</v>
       </c>
       <c r="W58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="X58" s="3">
         <v>300</v>
@@ -3938,8 +4072,11 @@
       <c r="Y58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3995,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="U59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V59" s="3">
         <v>100</v>
@@ -4009,13 +4146,16 @@
       <c r="Y59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E60" s="3">
         <v>100</v>
@@ -4036,7 +4176,7 @@
         <v>100</v>
       </c>
       <c r="K60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L60" s="3">
         <v>0</v>
@@ -4066,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="U60" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="V60" s="3">
         <v>400</v>
@@ -4080,8 +4220,11 @@
       <c r="Y60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4151,19 +4294,22 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="F62" s="3">
+        <v>0</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
@@ -4180,8 +4326,8 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -4222,8 +4368,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4442,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4516,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,13 +4590,16 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E66" s="3">
         <v>100</v>
@@ -4462,7 +4620,7 @@
         <v>100</v>
       </c>
       <c r="K66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L66" s="3">
         <v>0</v>
@@ -4492,7 +4650,7 @@
         <v>0</v>
       </c>
       <c r="U66" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="V66" s="3">
         <v>400</v>
@@ -4506,8 +4664,11 @@
       <c r="Y66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4694,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4766,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4840,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4914,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,19 +4988,22 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4300</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-700</v>
       </c>
       <c r="G72" s="3">
         <v>-700</v>
@@ -4844,7 +5018,7 @@
         <v>-700</v>
       </c>
       <c r="K72" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="L72" s="3">
         <v>-600</v>
@@ -4888,8 +5062,11 @@
       <c r="Y72" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5136,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5210,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,19 +5284,22 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E76" s="3">
         <v>1700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1600</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-100</v>
       </c>
       <c r="G76" s="3">
         <v>-100</v>
@@ -5125,7 +5311,7 @@
         <v>-100</v>
       </c>
       <c r="J76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K76" s="3">
         <v>0</v>
@@ -5158,7 +5344,7 @@
         <v>0</v>
       </c>
       <c r="U76" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="V76" s="3">
         <v>-400</v>
@@ -5172,8 +5358,11 @@
       <c r="Y76" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,96 +5432,102 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44592</v>
+      </c>
+      <c r="E80" s="2">
         <v>44500</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44408</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44316</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44227</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44135</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44043</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43951</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43861</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43769</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E81" s="3">
         <v>100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
         <v>0</v>
       </c>
@@ -5340,11 +5535,11 @@
         <v>0</v>
       </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
@@ -5390,8 +5585,11 @@
       <c r="Y81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,16 +5615,17 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
+      <c r="E83" s="3">
+        <v>0</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>4</v>
@@ -5443,8 +5642,8 @@
       <c r="J83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -5488,8 +5687,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5761,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5835,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5909,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5983,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,20 +6057,23 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
@@ -5914,8 +6131,11 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6161,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6012,8 +6233,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6307,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,16 +6381,19 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>4</v>
@@ -6180,8 +6410,8 @@
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -6225,8 +6455,11 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6485,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6557,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6631,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6705,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,20 +6779,23 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
@@ -6557,25 +6803,25 @@
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
+      <c r="M100" s="3">
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="O100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -6607,8 +6853,11 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,13 +6927,16 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -6747,6 +6999,9 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGID_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGID_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="92">
   <si>
     <t>PGID</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,112 +665,115 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E7" s="2">
         <v>44592</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44500</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44408</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44316</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44227</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44135</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44043</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43951</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43861</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43769</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -781,28 +784,28 @@
         <v>0</v>
       </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>100</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K8" s="3">
         <v>400</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -843,8 +846,11 @@
       <c r="Z8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -854,8 +860,8 @@
       <c r="E9" s="3">
         <v>0</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
+      <c r="F9" s="3">
+        <v>0</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
@@ -917,8 +923,11 @@
       <c r="Z9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -928,8 +937,8 @@
       <c r="E10" s="3">
         <v>0</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
+      <c r="F10" s="3">
+        <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
@@ -991,8 +1000,11 @@
       <c r="Z10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1019,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1093,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1167,8 +1183,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1178,12 +1197,12 @@
       <c r="E14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1199,8 +1218,8 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1241,8 +1260,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1252,8 +1274,8 @@
       <c r="E15" s="3">
         <v>0</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
+      <c r="F15" s="3">
+        <v>0</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>4</v>
@@ -1273,8 +1295,8 @@
       <c r="L15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="M15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1315,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1340,8 +1365,9 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1352,11 +1378,11 @@
         <v>100</v>
       </c>
       <c r="F17" s="3">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
@@ -1364,11 +1390,11 @@
         <v>0</v>
       </c>
       <c r="J17" s="3">
+        <v>0</v>
+      </c>
+      <c r="K17" s="3">
         <v>900</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
@@ -1414,8 +1440,11 @@
       <c r="Z17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1428,8 +1457,8 @@
       <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>4</v>
+      <c r="G18" s="3">
+        <v>-100</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>4</v>
@@ -1437,17 +1466,17 @@
       <c r="I18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
+      <c r="M18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N18" s="3">
         <v>0</v>
@@ -1488,8 +1517,11 @@
       <c r="Z18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1516,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1525,13 +1558,13 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>4</v>
+      <c r="G20" s="3">
+        <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>4</v>
@@ -1539,17 +1572,17 @@
       <c r="I20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
+      <c r="M20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
@@ -1590,8 +1623,11 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1599,11 +1635,11 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F21" s="3">
         <v>200</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1664,8 +1700,11 @@
       <c r="Z21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1702,14 +1741,14 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1738,8 +1777,11 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1747,14 +1789,14 @@
         <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F23" s="3">
         <v>100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
@@ -1762,11 +1804,11 @@
         <v>0</v>
       </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-800</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
@@ -1812,8 +1854,11 @@
       <c r="Z23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1886,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1960,8 +2008,11 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1969,14 +2020,14 @@
         <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F26" s="3">
         <v>100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
@@ -1984,11 +2035,11 @@
         <v>0</v>
       </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
@@ -2034,8 +2085,11 @@
       <c r="Z26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2043,14 +2097,14 @@
         <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F27" s="3">
         <v>100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
@@ -2058,11 +2112,11 @@
         <v>0</v>
       </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
@@ -2108,8 +2162,11 @@
       <c r="Z27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2182,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2256,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2330,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2404,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2413,13 +2482,13 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>4</v>
+      <c r="G32" s="3">
+        <v>0</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>4</v>
@@ -2427,17 +2496,17 @@
       <c r="I32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
+      <c r="M32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
@@ -2478,8 +2547,11 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2487,14 +2559,14 @@
         <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F33" s="3">
         <v>100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
@@ -2502,11 +2574,11 @@
         <v>0</v>
       </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
@@ -2552,8 +2624,11 @@
       <c r="Z33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2626,8 +2701,11 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2635,14 +2713,14 @@
         <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F35" s="3">
         <v>100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
@@ -2650,11 +2728,11 @@
         <v>0</v>
       </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
@@ -2700,87 +2778,93 @@
       <c r="Z35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E38" s="2">
         <v>44592</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44500</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44408</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44316</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44227</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44135</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44043</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43951</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43861</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43769</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2807,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2835,23 +2920,24 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
@@ -2888,11 +2974,11 @@
       <c r="S41" s="3">
         <v>0</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U41" s="3">
-        <v>0</v>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V41" s="3">
         <v>0</v>
@@ -2909,8 +2995,11 @@
       <c r="Z41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2983,8 +3072,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2997,8 +3089,8 @@
       <c r="F43" s="3">
         <v>0</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
+      <c r="G43" s="3">
+        <v>0</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
@@ -3015,8 +3107,8 @@
       <c r="L43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -3057,8 +3149,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3071,8 +3166,8 @@
       <c r="F44" s="3">
         <v>800</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
+      <c r="G44" s="3">
+        <v>800</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>4</v>
@@ -3089,8 +3184,8 @@
       <c r="L44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M44" s="3">
-        <v>0</v>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -3131,8 +3226,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3145,8 +3243,8 @@
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>4</v>
@@ -3163,8 +3261,8 @@
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -3181,14 +3279,14 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T45" s="3">
-        <v>0</v>
-      </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
       </c>
       <c r="V45" s="3" t="s">
         <v>4</v>
@@ -3205,23 +3303,26 @@
       <c r="Z45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E46" s="3">
         <v>1300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>900</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
@@ -3279,8 +3380,11 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3353,8 +3457,11 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3365,11 +3472,11 @@
         <v>0</v>
       </c>
       <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
         <v>500</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3385,8 +3492,8 @@
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
@@ -3427,8 +3534,11 @@
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3436,13 +3546,13 @@
         <v>300</v>
       </c>
       <c r="E49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F49" s="3">
         <v>200</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
+      <c r="G49" s="3">
+        <v>200</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>4</v>
@@ -3459,8 +3569,8 @@
       <c r="L49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -3501,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3575,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3649,8 +3765,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3675,8 +3794,8 @@
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -3723,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3797,23 +3919,26 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1700</v>
       </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
       <c r="H54" s="3">
         <v>0</v>
       </c>
@@ -3871,8 +3996,11 @@
       <c r="Z54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3899,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3927,8 +4056,9 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3941,8 +4071,8 @@
       <c r="F57" s="3">
         <v>0</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
+      <c r="G57" s="3">
+        <v>0</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>4</v>
@@ -3959,8 +4089,8 @@
       <c r="L57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
+      <c r="M57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
@@ -4001,8 +4131,11 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4010,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
@@ -4031,7 +4164,7 @@
         <v>100</v>
       </c>
       <c r="L58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -4061,13 +4194,13 @@
         <v>0</v>
       </c>
       <c r="V58" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="W58" s="3">
         <v>400</v>
       </c>
       <c r="X58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Y58" s="3">
         <v>300</v>
@@ -4075,31 +4208,34 @@
       <c r="Z58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
         <v>0</v>
       </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G59" s="3">
         <v>0</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -4135,7 +4271,7 @@
         <v>0</v>
       </c>
       <c r="V59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W59" s="3">
         <v>100</v>
@@ -4149,8 +4285,11 @@
       <c r="Z59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4158,7 +4297,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F60" s="3">
         <v>100</v>
@@ -4179,7 +4318,7 @@
         <v>100</v>
       </c>
       <c r="L60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M60" s="3">
         <v>0</v>
@@ -4209,7 +4348,7 @@
         <v>0</v>
       </c>
       <c r="V60" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="W60" s="3">
         <v>400</v>
@@ -4223,8 +4362,11 @@
       <c r="Z60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4297,22 +4439,25 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
+      <c r="D62" s="3">
+        <v>100</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
+      <c r="G62" s="3">
+        <v>0</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>4</v>
@@ -4329,8 +4474,8 @@
       <c r="L62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -4371,8 +4516,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4445,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4519,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4593,16 +4747,19 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F66" s="3">
         <v>100</v>
@@ -4623,7 +4780,7 @@
         <v>100</v>
       </c>
       <c r="L66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M66" s="3">
         <v>0</v>
@@ -4653,7 +4810,7 @@
         <v>0</v>
       </c>
       <c r="V66" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="W66" s="3">
         <v>400</v>
@@ -4667,8 +4824,11 @@
       <c r="Z66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4695,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4769,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4843,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4917,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4991,22 +5161,25 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-4300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4300</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-700</v>
       </c>
       <c r="H72" s="3">
         <v>-700</v>
@@ -5021,7 +5194,7 @@
         <v>-700</v>
       </c>
       <c r="L72" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="M72" s="3">
         <v>-600</v>
@@ -5065,8 +5238,11 @@
       <c r="Z72" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5139,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5213,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5287,22 +5469,25 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E76" s="3">
         <v>1600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1600</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-100</v>
       </c>
       <c r="H76" s="3">
         <v>-100</v>
@@ -5314,7 +5499,7 @@
         <v>-100</v>
       </c>
       <c r="K76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L76" s="3">
         <v>0</v>
@@ -5347,7 +5532,7 @@
         <v>0</v>
       </c>
       <c r="V76" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="W76" s="3">
         <v>-400</v>
@@ -5361,8 +5546,11 @@
       <c r="Z76" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA76" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5435,87 +5623,93 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44681</v>
+      </c>
+      <c r="E80" s="2">
         <v>44592</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44500</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44408</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44316</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44227</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44135</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44043</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43951</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43861</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43769</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5523,14 +5717,14 @@
         <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F81" s="3">
         <v>100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
@@ -5538,11 +5732,11 @@
         <v>0</v>
       </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
@@ -5588,8 +5782,11 @@
       <c r="Z81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5616,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5627,8 +5825,8 @@
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>4</v>
@@ -5645,8 +5843,8 @@
       <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -5690,8 +5888,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5764,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5838,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5912,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5986,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6060,23 +6273,26 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>500</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
@@ -6134,8 +6350,11 @@
       <c r="Z89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6162,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6236,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6310,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6384,8 +6610,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6395,8 +6624,8 @@
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
@@ -6413,8 +6642,8 @@
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -6458,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6486,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6560,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6634,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6708,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6782,23 +7024,26 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
@@ -6806,25 +7051,25 @@
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
+      <c r="P100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -6856,8 +7101,11 @@
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6930,17 +7178,20 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>500</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
@@ -7002,6 +7253,9 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGID_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGID_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="92">
   <si>
     <t>PGID</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E7" s="2">
         <v>44681</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44592</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44500</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44408</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44316</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44227</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44135</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44043</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43951</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43861</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43769</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -787,28 +791,28 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3">
         <v>400</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
@@ -849,8 +853,11 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -863,8 +870,8 @@
       <c r="F9" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
+      <c r="G9" s="3">
+        <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -940,8 +950,8 @@
       <c r="F10" s="3">
         <v>0</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
+      <c r="G10" s="3">
+        <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,13 +1203,16 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
@@ -1200,12 +1220,12 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1221,8 +1241,8 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1277,8 +1300,8 @@
       <c r="F15" s="3">
         <v>0</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>4</v>
+      <c r="G15" s="3">
+        <v>0</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>4</v>
@@ -1298,8 +1321,8 @@
       <c r="M15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,13 +1392,14 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
@@ -1381,11 +1408,11 @@
         <v>100</v>
       </c>
       <c r="G17" s="3">
+        <v>100</v>
+      </c>
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
@@ -1393,11 +1420,11 @@
         <v>0</v>
       </c>
       <c r="K17" s="3">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3">
         <v>900</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
@@ -1443,8 +1470,11 @@
       <c r="AA17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1460,8 +1490,8 @@
       <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>4</v>
+      <c r="H18" s="3">
+        <v>-100</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>4</v>
@@ -1469,17 +1499,17 @@
       <c r="J18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
+      <c r="N18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O18" s="3">
         <v>0</v>
@@ -1520,8 +1550,11 @@
       <c r="AA18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1561,13 +1595,13 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>4</v>
+      <c r="H20" s="3">
+        <v>0</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>4</v>
@@ -1575,17 +1609,17 @@
       <c r="J20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
+      <c r="N20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
@@ -1626,8 +1660,11 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1638,11 +1675,11 @@
         <v>-100</v>
       </c>
       <c r="F21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G21" s="3">
         <v>200</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1703,8 +1740,11 @@
       <c r="AA21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1744,14 +1784,14 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
+      <c r="P22" s="3">
+        <v>0</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1780,26 +1820,29 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
       </c>
       <c r="F23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G23" s="3">
         <v>100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
@@ -1807,11 +1850,11 @@
         <v>0</v>
       </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-800</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
@@ -1857,8 +1900,11 @@
       <c r="AA23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,26 +2060,29 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
       </c>
       <c r="F26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G26" s="3">
         <v>100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
@@ -2038,11 +2090,11 @@
         <v>0</v>
       </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
@@ -2088,26 +2140,29 @@
       <c r="AA26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
       </c>
       <c r="F27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G27" s="3">
         <v>100</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
@@ -2115,11 +2170,11 @@
         <v>0</v>
       </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
@@ -2165,8 +2220,11 @@
       <c r="AA27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2485,13 +2555,13 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>4</v>
+      <c r="H32" s="3">
+        <v>0</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>4</v>
@@ -2499,17 +2569,17 @@
       <c r="J32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
+      <c r="N32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O32" s="3">
         <v>0</v>
@@ -2550,26 +2620,29 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
       </c>
       <c r="F33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G33" s="3">
         <v>100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
@@ -2577,11 +2650,11 @@
         <v>0</v>
       </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
@@ -2627,8 +2700,11 @@
       <c r="AA33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,26 +2780,29 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
       </c>
       <c r="F35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G35" s="3">
         <v>100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
@@ -2731,11 +2810,11 @@
         <v>0</v>
       </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
@@ -2781,90 +2860,96 @@
       <c r="AA35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E38" s="2">
         <v>44681</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44592</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44500</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44408</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44316</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44227</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44135</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44043</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43951</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43861</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43769</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,8 +3007,9 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2930,17 +3017,17 @@
         <v>600</v>
       </c>
       <c r="E41" s="3">
+        <v>600</v>
+      </c>
+      <c r="F41" s="3">
         <v>500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
@@ -2977,11 +3064,11 @@
       <c r="T41" s="3">
         <v>0</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V41" s="3">
-        <v>0</v>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W41" s="3">
         <v>0</v>
@@ -2998,8 +3085,11 @@
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,8 +3165,11 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3092,8 +3185,8 @@
       <c r="G43" s="3">
         <v>0</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
+      <c r="H43" s="3">
+        <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
@@ -3110,8 +3203,8 @@
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -3152,8 +3245,11 @@
       <c r="AA43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3169,8 +3265,8 @@
       <c r="G44" s="3">
         <v>800</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
+      <c r="H44" s="3">
+        <v>800</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>4</v>
@@ -3187,8 +3283,8 @@
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N44" s="3">
-        <v>0</v>
+      <c r="N44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3246,8 +3345,8 @@
       <c r="G45" s="3">
         <v>0</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>4</v>
@@ -3264,8 +3363,8 @@
       <c r="M45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -3282,14 +3381,14 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
-      <c r="V45" s="3" t="s">
-        <v>4</v>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
       </c>
       <c r="W45" s="3" t="s">
         <v>4</v>
@@ -3306,8 +3405,11 @@
       <c r="AA45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3315,17 +3417,17 @@
         <v>1400</v>
       </c>
       <c r="E46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F46" s="3">
         <v>1300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>900</v>
       </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
       <c r="I46" s="3">
         <v>0</v>
       </c>
@@ -3383,8 +3485,11 @@
       <c r="AA46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3475,11 +3583,11 @@
         <v>0</v>
       </c>
       <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
         <v>500</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3495,8 +3603,8 @@
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3549,13 +3660,13 @@
         <v>300</v>
       </c>
       <c r="F49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G49" s="3">
         <v>200</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
+      <c r="H49" s="3">
+        <v>200</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>4</v>
@@ -3572,8 +3683,8 @@
       <c r="M49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,13 +3885,16 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3">
+        <v>0</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>4</v>
@@ -3797,8 +3917,8 @@
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,8 +4045,11 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3931,17 +4057,17 @@
         <v>1700</v>
       </c>
       <c r="E54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F54" s="3">
         <v>1600</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1700</v>
       </c>
-      <c r="H54" s="3">
-        <v>0</v>
-      </c>
       <c r="I54" s="3">
         <v>0</v>
       </c>
@@ -3999,8 +4125,11 @@
       <c r="AA54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,8 +4187,9 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4074,8 +4205,8 @@
       <c r="G57" s="3">
         <v>0</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
+      <c r="H57" s="3">
+        <v>0</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>4</v>
@@ -4092,8 +4223,8 @@
       <c r="M57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
+      <c r="N57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O57" s="3">
         <v>0</v>
@@ -4134,8 +4265,11 @@
       <c r="AA57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4146,7 +4280,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
@@ -4167,7 +4301,7 @@
         <v>100</v>
       </c>
       <c r="M58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N58" s="3">
         <v>0</v>
@@ -4197,13 +4331,13 @@
         <v>0</v>
       </c>
       <c r="W58" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X58" s="3">
         <v>400</v>
       </c>
       <c r="Y58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Z58" s="3">
         <v>300</v>
@@ -4211,25 +4345,28 @@
       <c r="AA58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
         <v>0</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
+      <c r="E59" s="3">
+        <v>0</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>4</v>
@@ -4237,8 +4374,8 @@
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -4274,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="W59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X59" s="3">
         <v>100</v>
@@ -4288,8 +4425,11 @@
       <c r="AA59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4300,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G60" s="3">
         <v>100</v>
@@ -4321,7 +4461,7 @@
         <v>100</v>
       </c>
       <c r="M60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N60" s="3">
         <v>0</v>
@@ -4351,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="W60" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X60" s="3">
         <v>400</v>
@@ -4365,8 +4505,11 @@
       <c r="AA60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4442,25 +4585,28 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>100</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
+      <c r="E62" s="3">
+        <v>100</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G62" s="3">
         <v>0</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
+      <c r="H62" s="3">
+        <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>4</v>
@@ -4477,8 +4623,8 @@
       <c r="M62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,8 +4905,11 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4759,10 +4917,10 @@
         <v>200</v>
       </c>
       <c r="E66" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G66" s="3">
         <v>100</v>
@@ -4783,7 +4941,7 @@
         <v>100</v>
       </c>
       <c r="M66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N66" s="3">
         <v>0</v>
@@ -4813,7 +4971,7 @@
         <v>0</v>
       </c>
       <c r="W66" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X66" s="3">
         <v>400</v>
@@ -4827,8 +4985,11 @@
       <c r="AA66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,8 +5335,11 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5173,16 +5347,16 @@
         <v>-4400</v>
       </c>
       <c r="E72" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-4300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4300</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-700</v>
       </c>
       <c r="I72" s="3">
         <v>-700</v>
@@ -5197,7 +5371,7 @@
         <v>-700</v>
       </c>
       <c r="M72" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="N72" s="3">
         <v>-600</v>
@@ -5241,8 +5415,11 @@
       <c r="AA72" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,8 +5655,11 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5481,16 +5667,16 @@
         <v>1500</v>
       </c>
       <c r="E76" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F76" s="3">
         <v>1600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1600</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-100</v>
       </c>
       <c r="I76" s="3">
         <v>-100</v>
@@ -5502,7 +5688,7 @@
         <v>-100</v>
       </c>
       <c r="L76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M76" s="3">
         <v>0</v>
@@ -5535,7 +5721,7 @@
         <v>0</v>
       </c>
       <c r="W76" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="X76" s="3">
         <v>-400</v>
@@ -5549,8 +5735,11 @@
       <c r="AA76" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB76" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,108 +5815,114 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44773</v>
+      </c>
+      <c r="E80" s="2">
         <v>44681</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44592</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44500</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44408</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44316</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44227</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44135</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44043</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43951</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43861</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43769</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
       </c>
       <c r="F81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G81" s="3">
         <v>100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
@@ -5735,11 +5930,11 @@
         <v>0</v>
       </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
@@ -5785,8 +5980,11 @@
       <c r="AA81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5828,8 +6027,8 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
+      <c r="G83" s="3">
+        <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>4</v>
@@ -5846,8 +6045,8 @@
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,26 +6490,29 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>500</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
         <v>0</v>
       </c>
@@ -6353,8 +6570,11 @@
       <c r="AA89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6627,8 +6857,8 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3">
+        <v>0</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>4</v>
@@ -6645,8 +6875,8 @@
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,8 +7270,11 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7036,17 +7282,17 @@
         <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>100</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -7054,25 +7300,25 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -7104,8 +7350,11 @@
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,8 +7430,11 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7190,11 +7442,11 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>500</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -7256,6 +7508,9 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGID_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGID_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="92">
   <si>
     <t>PGID</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,123 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E7" s="2">
         <v>44773</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44681</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44592</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44500</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44408</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44316</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44227</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44135</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44043</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43951</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43861</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43769</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -794,28 +798,28 @@
         <v>0</v>
       </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M8" s="3">
         <v>400</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -856,8 +860,11 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -873,8 +880,8 @@
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
+      <c r="H9" s="3">
+        <v>0</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>4</v>
@@ -936,8 +943,11 @@
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -953,8 +963,8 @@
       <c r="G10" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
+      <c r="H10" s="3">
+        <v>0</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>4</v>
@@ -1016,8 +1026,11 @@
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,8 +1059,9 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1140,11 @@
       <c r="AB12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,16 +1223,19 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
@@ -1223,12 +1243,12 @@
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1244,8 +1264,8 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1286,8 +1306,11 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1303,8 +1326,8 @@
       <c r="G15" s="3">
         <v>0</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>4</v>
+      <c r="H15" s="3">
+        <v>0</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>4</v>
@@ -1324,8 +1347,8 @@
       <c r="N15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O15" s="3">
-        <v>0</v>
+      <c r="O15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1366,8 +1389,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,16 +1419,17 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
@@ -1411,11 +1438,11 @@
         <v>100</v>
       </c>
       <c r="H17" s="3">
+        <v>100</v>
+      </c>
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
@@ -1423,11 +1450,11 @@
         <v>0</v>
       </c>
       <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
         <v>900</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
@@ -1473,8 +1500,11 @@
       <c r="AB17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1482,7 +1512,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>-100</v>
@@ -1493,8 +1523,8 @@
       <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>4</v>
+      <c r="I18" s="3">
+        <v>-100</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>4</v>
@@ -1502,17 +1532,17 @@
       <c r="K18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
+      <c r="O18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P18" s="3">
         <v>0</v>
@@ -1553,8 +1583,11 @@
       <c r="AB18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1616,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1598,13 +1632,13 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>4</v>
+      <c r="I20" s="3">
+        <v>0</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>4</v>
@@ -1612,17 +1646,17 @@
       <c r="K20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
+      <c r="O20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
@@ -1663,8 +1697,11 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1672,17 +1709,17 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
         <v>-100</v>
       </c>
       <c r="G21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H21" s="3">
         <v>200</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1743,8 +1780,11 @@
       <c r="AB21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1787,14 +1827,14 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1823,29 +1863,32 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F23" s="3">
         <v>-100</v>
       </c>
       <c r="G23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H23" s="3">
         <v>100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
@@ -1853,11 +1896,11 @@
         <v>0</v>
       </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-800</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
@@ -1903,8 +1946,11 @@
       <c r="AB23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1983,8 +2029,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,29 +2112,32 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
         <v>-100</v>
       </c>
       <c r="G26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H26" s="3">
         <v>100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
@@ -2093,11 +2145,11 @@
         <v>0</v>
       </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-800</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
@@ -2143,29 +2195,32 @@
       <c r="AB26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
         <v>-100</v>
       </c>
       <c r="G27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H27" s="3">
         <v>100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
@@ -2173,11 +2228,11 @@
         <v>0</v>
       </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
@@ -2223,8 +2278,11 @@
       <c r="AB27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2361,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2444,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2527,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2610,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2558,13 +2628,13 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>4</v>
+      <c r="I32" s="3">
+        <v>0</v>
       </c>
       <c r="J32" s="3" t="s">
         <v>4</v>
@@ -2572,17 +2642,17 @@
       <c r="K32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
+      <c r="O32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
@@ -2623,29 +2693,32 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
         <v>-100</v>
       </c>
       <c r="G33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H33" s="3">
         <v>100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
@@ -2653,11 +2726,11 @@
         <v>0</v>
       </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
@@ -2703,8 +2776,11 @@
       <c r="AB33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,29 +2859,32 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
         <v>-100</v>
       </c>
       <c r="G35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H35" s="3">
         <v>100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
@@ -2813,11 +2892,11 @@
         <v>0</v>
       </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
@@ -2863,93 +2942,99 @@
       <c r="AB35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E38" s="2">
         <v>44773</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44681</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44592</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44500</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44408</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44316</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44227</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44135</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44043</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43951</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43861</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43769</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3063,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,29 +3094,30 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E41" s="3">
         <v>600</v>
       </c>
       <c r="F41" s="3">
+        <v>600</v>
+      </c>
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -3067,11 +3154,11 @@
       <c r="U41" s="3">
         <v>0</v>
       </c>
-      <c r="V41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W41" s="3">
-        <v>0</v>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X41" s="3">
         <v>0</v>
@@ -3088,8 +3175,11 @@
       <c r="AB41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3168,8 +3258,11 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3188,8 +3281,8 @@
       <c r="H43" s="3">
         <v>0</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
@@ -3206,8 +3299,8 @@
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -3248,13 +3341,16 @@
       <c r="AB43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E44" s="3">
         <v>800</v>
@@ -3268,8 +3364,8 @@
       <c r="H44" s="3">
         <v>800</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
+      <c r="I44" s="3">
+        <v>800</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
@@ -3286,8 +3382,8 @@
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O44" s="3">
-        <v>0</v>
+      <c r="O44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
@@ -3328,8 +3424,11 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3348,8 +3447,8 @@
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
@@ -3366,8 +3465,8 @@
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -3384,14 +3483,14 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
-      <c r="W45" s="3" t="s">
-        <v>4</v>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
       </c>
       <c r="X45" s="3" t="s">
         <v>4</v>
@@ -3408,29 +3507,32 @@
       <c r="AB45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="E46" s="3">
         <v>1400</v>
       </c>
       <c r="F46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G46" s="3">
         <v>1300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>900</v>
       </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
@@ -3488,8 +3590,11 @@
       <c r="AB46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,8 +3673,11 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3586,11 +3694,11 @@
         <v>0</v>
       </c>
       <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
         <v>500</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3606,8 +3714,8 @@
       <c r="N48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -3648,8 +3756,11 @@
       <c r="AB48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3663,13 +3774,13 @@
         <v>300</v>
       </c>
       <c r="G49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H49" s="3">
         <v>200</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>4</v>
+      <c r="I49" s="3">
+        <v>200</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>4</v>
@@ -3686,8 +3797,8 @@
       <c r="N49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
@@ -3728,8 +3839,11 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3922,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,16 +4005,19 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>4</v>
@@ -3920,8 +4040,8 @@
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -3968,8 +4088,11 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,29 +4171,32 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="E54" s="3">
         <v>1700</v>
       </c>
       <c r="F54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G54" s="3">
         <v>1600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1700</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
       <c r="J54" s="3">
         <v>0</v>
       </c>
@@ -4128,8 +4254,11 @@
       <c r="AB54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4287,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,8 +4318,9 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4208,8 +4339,8 @@
       <c r="H57" s="3">
         <v>0</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
+      <c r="I57" s="3">
+        <v>0</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>4</v>
@@ -4226,8 +4357,8 @@
       <c r="N57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O57" s="3">
-        <v>0</v>
+      <c r="O57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P57" s="3">
         <v>0</v>
@@ -4268,13 +4399,16 @@
       <c r="AB57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
+      <c r="D58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -4283,7 +4417,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
@@ -4304,7 +4438,7 @@
         <v>100</v>
       </c>
       <c r="N58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -4334,13 +4468,13 @@
         <v>0</v>
       </c>
       <c r="X58" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y58" s="3">
         <v>400</v>
       </c>
       <c r="Z58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AA58" s="3">
         <v>300</v>
@@ -4348,8 +4482,11 @@
       <c r="AB58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4359,17 +4496,17 @@
       <c r="E59" s="3">
         <v>0</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
+      <c r="F59" s="3">
+        <v>0</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
@@ -4377,8 +4514,8 @@
       <c r="K59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -4414,7 +4551,7 @@
         <v>0</v>
       </c>
       <c r="X59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y59" s="3">
         <v>100</v>
@@ -4428,8 +4565,11 @@
       <c r="AB59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4443,7 +4583,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H60" s="3">
         <v>100</v>
@@ -4464,7 +4604,7 @@
         <v>100</v>
       </c>
       <c r="N60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O60" s="3">
         <v>0</v>
@@ -4494,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="X60" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y60" s="3">
         <v>400</v>
@@ -4508,8 +4648,11 @@
       <c r="AB60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4588,8 +4731,11 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4599,17 +4745,17 @@
       <c r="E62" s="3">
         <v>100</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
+      <c r="F62" s="3">
+        <v>100</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>4</v>
@@ -4626,8 +4772,8 @@
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P62" s="3">
         <v>0</v>
@@ -4668,8 +4814,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4897,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4980,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,8 +5063,11 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4920,10 +5078,10 @@
         <v>200</v>
       </c>
       <c r="F66" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H66" s="3">
         <v>100</v>
@@ -4944,7 +5102,7 @@
         <v>100</v>
       </c>
       <c r="N66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O66" s="3">
         <v>0</v>
@@ -4974,7 +5132,7 @@
         <v>0</v>
       </c>
       <c r="X66" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y66" s="3">
         <v>400</v>
@@ -4988,8 +5146,11 @@
       <c r="AB66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5179,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5260,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5343,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5426,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,28 +5509,31 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-4400</v>
+        <v>-4600</v>
       </c>
       <c r="E72" s="3">
         <v>-4400</v>
       </c>
       <c r="F72" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="G72" s="3">
         <v>-4300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-4200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4300</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-700</v>
       </c>
       <c r="J72" s="3">
         <v>-700</v>
@@ -5374,7 +5548,7 @@
         <v>-700</v>
       </c>
       <c r="N72" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="O72" s="3">
         <v>-600</v>
@@ -5418,8 +5592,11 @@
       <c r="AB72" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC72" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5675,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5758,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,28 +5841,31 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E76" s="3">
         <v>1500</v>
       </c>
       <c r="F76" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G76" s="3">
         <v>1600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1600</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-100</v>
       </c>
       <c r="J76" s="3">
         <v>-100</v>
@@ -5691,7 +5877,7 @@
         <v>-100</v>
       </c>
       <c r="M76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N76" s="3">
         <v>0</v>
@@ -5724,7 +5910,7 @@
         <v>0</v>
       </c>
       <c r="X76" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="Y76" s="3">
         <v>-400</v>
@@ -5738,8 +5924,11 @@
       <c r="AB76" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC76" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,114 +6007,120 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44865</v>
+      </c>
+      <c r="E80" s="2">
         <v>44773</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44681</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44592</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44500</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44408</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44316</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44227</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44135</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44043</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43951</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43861</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43769</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F81" s="3">
         <v>-100</v>
       </c>
       <c r="G81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H81" s="3">
         <v>100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
@@ -5933,11 +6128,11 @@
         <v>0</v>
       </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
@@ -5983,8 +6178,11 @@
       <c r="AB81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6211,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6030,8 +6229,8 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>4</v>
@@ -6048,8 +6247,8 @@
       <c r="M83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -6093,8 +6292,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6375,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6458,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6541,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6624,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,8 +6707,11 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6502,20 +6719,20 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>500</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
@@ -6573,8 +6790,11 @@
       <c r="AB89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6823,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6683,8 +6904,11 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6987,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7070,11 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6860,8 +7090,8 @@
       <c r="G94" s="3">
         <v>0</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
@@ -6878,8 +7108,8 @@
       <c r="M94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -6923,8 +7153,11 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7186,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7267,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7350,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7433,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,29 +7516,32 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>100</v>
       </c>
       <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -7303,25 +7549,25 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
+      <c r="P100" s="3">
+        <v>0</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
+      <c r="R100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
@@ -7353,8 +7599,11 @@
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,8 +7682,11 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -7445,11 +7697,11 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>500</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -7511,6 +7763,9 @@
         <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGID_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGID_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="92">
   <si>
     <t>PGID</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,123 +665,127 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E7" s="2">
         <v>44865</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44773</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44681</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44592</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44500</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44408</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44316</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44227</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44135</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44043</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43951</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43861</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43769</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -801,28 +805,28 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N8" s="3">
         <v>400</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="P8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
@@ -863,8 +867,11 @@
       <c r="AC8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -883,8 +890,8 @@
       <c r="H9" s="3">
         <v>0</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
+      <c r="I9" s="3">
+        <v>0</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
@@ -946,8 +953,11 @@
       <c r="AC9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -966,8 +976,8 @@
       <c r="H10" s="3">
         <v>0</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
+      <c r="I10" s="3">
+        <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
@@ -1029,8 +1039,11 @@
       <c r="AC10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,8 +1073,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1143,8 +1157,11 @@
       <c r="AC12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,8 +1243,11 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1237,8 +1257,8 @@
       <c r="E14" s="3">
         <v>0</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
@@ -1246,12 +1266,12 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
         <v>100</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1267,8 +1287,8 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q14" s="3">
         <v>0</v>
@@ -1309,8 +1329,11 @@
       <c r="AC14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1329,8 +1352,8 @@
       <c r="H15" s="3">
         <v>0</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>4</v>
+      <c r="I15" s="3">
+        <v>0</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>4</v>
@@ -1350,8 +1373,8 @@
       <c r="O15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
+      <c r="P15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1392,8 +1415,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,19 +1446,20 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
       <c r="F17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G17" s="3">
         <v>100</v>
@@ -1441,11 +1468,11 @@
         <v>100</v>
       </c>
       <c r="I17" s="3">
+        <v>100</v>
+      </c>
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
       <c r="K17" s="3">
         <v>0</v>
       </c>
@@ -1453,11 +1480,11 @@
         <v>0</v>
       </c>
       <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
         <v>900</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
@@ -1503,8 +1530,11 @@
       <c r="AC17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1512,10 +1542,10 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G18" s="3">
         <v>-100</v>
@@ -1526,8 +1556,8 @@
       <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>4</v>
+      <c r="J18" s="3">
+        <v>-100</v>
       </c>
       <c r="K18" s="3" t="s">
         <v>4</v>
@@ -1535,17 +1565,17 @@
       <c r="L18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
+      <c r="P18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q18" s="3">
         <v>0</v>
@@ -1586,8 +1616,11 @@
       <c r="AC18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,8 +1650,9 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1635,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>4</v>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>4</v>
@@ -1649,17 +1683,17 @@
       <c r="L20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
+      <c r="P20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
@@ -1700,8 +1734,11 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1709,20 +1746,20 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G21" s="3">
         <v>-100</v>
       </c>
       <c r="H21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I21" s="3">
         <v>200</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1783,8 +1820,11 @@
       <c r="AC21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1830,14 +1870,14 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1866,32 +1906,35 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G23" s="3">
         <v>-100</v>
       </c>
       <c r="H23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I23" s="3">
         <v>100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
         <v>0</v>
       </c>
@@ -1899,11 +1942,11 @@
         <v>0</v>
       </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-800</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
@@ -1949,8 +1992,11 @@
       <c r="AC23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2032,8 +2078,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,32 +2164,35 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G26" s="3">
         <v>-100</v>
       </c>
       <c r="H26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I26" s="3">
         <v>100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
         <v>0</v>
       </c>
@@ -2148,11 +2200,11 @@
         <v>0</v>
       </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-800</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
@@ -2198,32 +2250,35 @@
       <c r="AC26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G27" s="3">
         <v>-100</v>
       </c>
       <c r="H27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I27" s="3">
         <v>100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
         <v>0</v>
       </c>
@@ -2231,11 +2286,11 @@
         <v>0</v>
       </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
@@ -2281,8 +2336,11 @@
       <c r="AC27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2422,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2447,8 +2508,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2594,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,8 +2680,11 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2631,13 +2701,13 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>4</v>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3" t="s">
         <v>4</v>
@@ -2645,17 +2715,17 @@
       <c r="L32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
+      <c r="P32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
@@ -2696,32 +2766,35 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G33" s="3">
         <v>-100</v>
       </c>
       <c r="H33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I33" s="3">
         <v>100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
         <v>0</v>
       </c>
@@ -2729,11 +2802,11 @@
         <v>0</v>
       </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
@@ -2779,8 +2852,11 @@
       <c r="AC33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,32 +2938,35 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G35" s="3">
         <v>-100</v>
       </c>
       <c r="H35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I35" s="3">
         <v>100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
         <v>0</v>
       </c>
@@ -2895,11 +2974,11 @@
         <v>0</v>
       </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
@@ -2945,96 +3024,102 @@
       <c r="AC35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E38" s="2">
         <v>44865</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44773</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44681</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44592</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44500</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44408</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44316</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44227</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44135</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44043</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43951</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43861</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43769</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3149,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,8 +3181,9 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3104,23 +3191,23 @@
         <v>500</v>
       </c>
       <c r="E41" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F41" s="3">
         <v>600</v>
       </c>
       <c r="G41" s="3">
+        <v>600</v>
+      </c>
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -3157,11 +3244,11 @@
       <c r="V41" s="3">
         <v>0</v>
       </c>
-      <c r="W41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X41" s="3">
-        <v>0</v>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y41" s="3">
         <v>0</v>
@@ -3178,8 +3265,11 @@
       <c r="AC41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3261,8 +3351,11 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3284,8 +3377,8 @@
       <c r="I43" s="3">
         <v>0</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
+      <c r="J43" s="3">
+        <v>0</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
@@ -3302,8 +3395,8 @@
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -3344,8 +3437,11 @@
       <c r="AC43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3353,7 +3449,7 @@
         <v>700</v>
       </c>
       <c r="E44" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F44" s="3">
         <v>800</v>
@@ -3367,8 +3463,8 @@
       <c r="I44" s="3">
         <v>800</v>
       </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
+      <c r="J44" s="3">
+        <v>800</v>
       </c>
       <c r="K44" s="3" t="s">
         <v>4</v>
@@ -3385,8 +3481,8 @@
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P44" s="3">
-        <v>0</v>
+      <c r="P44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
@@ -3427,8 +3523,11 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3450,8 +3549,8 @@
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>4</v>
@@ -3468,8 +3567,8 @@
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -3486,14 +3585,14 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-      <c r="V45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W45" s="3">
-        <v>0</v>
-      </c>
-      <c r="X45" s="3" t="s">
-        <v>4</v>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
       </c>
       <c r="Y45" s="3" t="s">
         <v>4</v>
@@ -3510,32 +3609,35 @@
       <c r="AC45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E46" s="3">
         <v>1300</v>
-      </c>
-      <c r="E46" s="3">
-        <v>1400</v>
       </c>
       <c r="F46" s="3">
         <v>1400</v>
       </c>
       <c r="G46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H46" s="3">
         <v>1300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>900</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
@@ -3593,8 +3695,11 @@
       <c r="AC46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3676,8 +3781,11 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3697,11 +3805,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
         <v>500</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3717,8 +3825,8 @@
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
@@ -3759,8 +3867,11 @@
       <c r="AC48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3777,13 +3888,13 @@
         <v>300</v>
       </c>
       <c r="H49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I49" s="3">
         <v>200</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>4</v>
+      <c r="J49" s="3">
+        <v>200</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>4</v>
@@ -3800,8 +3911,8 @@
       <c r="O49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -3842,8 +3953,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4039,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,19 +4125,22 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>4</v>
@@ -4043,8 +4163,8 @@
       <c r="M52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -4091,8 +4211,11 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,32 +4297,35 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E54" s="3">
         <v>1600</v>
-      </c>
-      <c r="E54" s="3">
-        <v>1700</v>
       </c>
       <c r="F54" s="3">
         <v>1700</v>
       </c>
       <c r="G54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H54" s="3">
         <v>1600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1700</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
@@ -4257,8 +4383,11 @@
       <c r="AC54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4417,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,8 +4449,9 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4342,8 +4473,8 @@
       <c r="I57" s="3">
         <v>0</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
+      <c r="J57" s="3">
+        <v>0</v>
       </c>
       <c r="K57" s="3" t="s">
         <v>4</v>
@@ -4360,8 +4491,8 @@
       <c r="O57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
+      <c r="P57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q57" s="3">
         <v>0</v>
@@ -4402,16 +4533,19 @@
       <c r="AC57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F58" s="3">
         <v>0</v>
@@ -4420,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
@@ -4441,7 +4575,7 @@
         <v>100</v>
       </c>
       <c r="O58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -4471,13 +4605,13 @@
         <v>0</v>
       </c>
       <c r="Y58" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Z58" s="3">
         <v>400</v>
       </c>
       <c r="AA58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AB58" s="3">
         <v>300</v>
@@ -4485,8 +4619,11 @@
       <c r="AC58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4499,17 +4636,17 @@
       <c r="F59" s="3">
         <v>0</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
+      <c r="G59" s="3">
+        <v>0</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>4</v>
@@ -4517,8 +4654,8 @@
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -4554,7 +4691,7 @@
         <v>0</v>
       </c>
       <c r="Y59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z59" s="3">
         <v>100</v>
@@ -4568,8 +4705,11 @@
       <c r="AC59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4586,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="H60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I60" s="3">
         <v>100</v>
@@ -4607,7 +4747,7 @@
         <v>100</v>
       </c>
       <c r="O60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P60" s="3">
         <v>0</v>
@@ -4637,7 +4777,7 @@
         <v>0</v>
       </c>
       <c r="Y60" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Z60" s="3">
         <v>400</v>
@@ -4651,8 +4791,11 @@
       <c r="AC60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4734,8 +4877,11 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4748,17 +4894,17 @@
       <c r="F62" s="3">
         <v>100</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
+      <c r="G62" s="3">
+        <v>100</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>4</v>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>4</v>
@@ -4775,8 +4921,8 @@
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -4817,8 +4963,11 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5049,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5135,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,13 +5221,16 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E66" s="3">
         <v>200</v>
@@ -5081,10 +5239,10 @@
         <v>200</v>
       </c>
       <c r="G66" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I66" s="3">
         <v>100</v>
@@ -5105,7 +5263,7 @@
         <v>100</v>
       </c>
       <c r="O66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P66" s="3">
         <v>0</v>
@@ -5135,7 +5293,7 @@
         <v>0</v>
       </c>
       <c r="Y66" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Z66" s="3">
         <v>400</v>
@@ -5149,8 +5307,11 @@
       <c r="AC66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5341,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5425,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5511,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5597,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,8 +5683,11 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5521,22 +5695,22 @@
         <v>-4600</v>
       </c>
       <c r="E72" s="3">
-        <v>-4400</v>
+        <v>-4600</v>
       </c>
       <c r="F72" s="3">
         <v>-4400</v>
       </c>
       <c r="G72" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="H72" s="3">
         <v>-4300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-4200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4300</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-700</v>
       </c>
       <c r="K72" s="3">
         <v>-700</v>
@@ -5551,7 +5725,7 @@
         <v>-700</v>
       </c>
       <c r="O72" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="P72" s="3">
         <v>-600</v>
@@ -5595,8 +5769,11 @@
       <c r="AC72" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5855,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5941,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,8 +6027,11 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5853,22 +6039,22 @@
         <v>1400</v>
       </c>
       <c r="E76" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="F76" s="3">
         <v>1500</v>
       </c>
       <c r="G76" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H76" s="3">
         <v>1600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1600</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-100</v>
       </c>
       <c r="K76" s="3">
         <v>-100</v>
@@ -5880,7 +6066,7 @@
         <v>-100</v>
       </c>
       <c r="N76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O76" s="3">
         <v>0</v>
@@ -5913,7 +6099,7 @@
         <v>0</v>
       </c>
       <c r="Y76" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="Z76" s="3">
         <v>-400</v>
@@ -5927,8 +6113,11 @@
       <c r="AC76" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD76" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,120 +6199,126 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44957</v>
+      </c>
+      <c r="E80" s="2">
         <v>44865</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44773</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44681</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44592</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44500</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44408</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44316</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44227</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44135</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44043</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43951</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43861</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43769</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G81" s="3">
         <v>-100</v>
       </c>
       <c r="H81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I81" s="3">
         <v>100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
         <v>0</v>
       </c>
@@ -6131,11 +6326,11 @@
         <v>0</v>
       </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
@@ -6181,8 +6376,11 @@
       <c r="AC81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,8 +6410,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6232,8 +6431,8 @@
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>4</v>
@@ -6250,8 +6449,8 @@
       <c r="N83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -6295,8 +6494,11 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6580,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6666,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6752,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6838,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,32 +6924,35 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>500</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
@@ -6793,8 +7010,11 @@
       <c r="AC89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,8 +7044,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6907,8 +7128,11 @@
       <c r="AC91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7214,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,8 +7300,11 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7093,8 +7323,8 @@
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
@@ -7111,8 +7341,8 @@
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -7156,8 +7386,11 @@
       <c r="AC94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7420,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7504,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7590,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7676,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,8 +7762,11 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7528,23 +7774,23 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
       </c>
       <c r="G100" s="3">
+        <v>100</v>
+      </c>
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -7552,25 +7798,25 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>4</v>
+      <c r="Q100" s="3">
+        <v>0</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
+      <c r="S100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
@@ -7602,8 +7848,11 @@
       <c r="AC100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7685,13 +7934,16 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -7700,11 +7952,11 @@
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>500</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -7766,6 +8018,9 @@
         <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGID_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGID_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="92">
   <si>
     <t>PGID</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,127 +665,130 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E7" s="2">
         <v>44957</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44865</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44773</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44681</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44592</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44500</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44408</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44316</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44227</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44135</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44043</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43951</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43861</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43769</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -808,28 +811,28 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8" s="3">
         <v>400</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
@@ -870,8 +873,11 @@
       <c r="AD8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -893,8 +899,8 @@
       <c r="I9" s="3">
         <v>0</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
+      <c r="J9" s="3">
+        <v>0</v>
       </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
@@ -956,8 +962,11 @@
       <c r="AD9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -979,8 +988,8 @@
       <c r="I10" s="3">
         <v>0</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
+      <c r="J10" s="3">
+        <v>0</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
@@ -1042,8 +1051,11 @@
       <c r="AD10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1074,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1160,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1246,22 +1262,25 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
@@ -1269,12 +1288,12 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1290,8 +1309,8 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1332,19 +1351,22 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
+      <c r="D15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
       </c>
-      <c r="F15" s="3">
-        <v>0</v>
+      <c r="F15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -1355,8 +1377,8 @@
       <c r="I15" s="3">
         <v>0</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>4</v>
+      <c r="J15" s="3">
+        <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>4</v>
@@ -1376,8 +1398,8 @@
       <c r="P15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
+      <c r="Q15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R15" s="3">
         <v>0</v>
@@ -1418,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1447,22 +1472,23 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
       <c r="G17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3">
         <v>100</v>
@@ -1471,11 +1497,11 @@
         <v>100</v>
       </c>
       <c r="J17" s="3">
+        <v>100</v>
+      </c>
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
@@ -1483,11 +1509,11 @@
         <v>0</v>
       </c>
       <c r="N17" s="3">
+        <v>0</v>
+      </c>
+      <c r="O17" s="3">
         <v>900</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
         <v>0</v>
       </c>
@@ -1533,8 +1559,11 @@
       <c r="AD17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1542,13 +1571,13 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
       <c r="G18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
         <v>-100</v>
@@ -1559,8 +1588,8 @@
       <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
+      <c r="K18" s="3">
+        <v>-100</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>4</v>
@@ -1568,17 +1597,17 @@
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R18" s="3">
         <v>0</v>
@@ -1619,8 +1648,11 @@
       <c r="AD18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1651,8 +1683,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1672,13 +1705,13 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
+      <c r="K20" s="3">
+        <v>0</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>4</v>
@@ -1686,17 +1719,17 @@
       <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" s="3">
         <v>-300</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R20" s="3">
         <v>0</v>
@@ -1737,8 +1770,11 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1746,23 +1782,23 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
-        <v>0</v>
-      </c>
       <c r="G21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
         <v>-100</v>
       </c>
       <c r="I21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J21" s="3">
         <v>200</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1823,8 +1859,11 @@
       <c r="AD21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1873,14 +1912,14 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>4</v>
+      <c r="S22" s="3">
+        <v>0</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
+      <c r="U22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V22" s="3">
         <v>0</v>
@@ -1909,35 +1948,38 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <v>-100</v>
       </c>
       <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
         <v>100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
@@ -1945,11 +1987,11 @@
         <v>0</v>
       </c>
       <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-800</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
         <v>0</v>
       </c>
@@ -1995,8 +2037,11 @@
       <c r="AD23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2081,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2167,35 +2215,38 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
         <v>-100</v>
       </c>
       <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
         <v>100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
@@ -2203,11 +2254,11 @@
         <v>0</v>
       </c>
       <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
         <v>0</v>
       </c>
@@ -2253,35 +2304,38 @@
       <c r="AD26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
         <v>-100</v>
       </c>
       <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
         <v>100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
@@ -2289,11 +2343,11 @@
         <v>0</v>
       </c>
       <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
         <v>0</v>
       </c>
@@ -2339,8 +2393,11 @@
       <c r="AD27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2425,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2511,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2597,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2683,8 +2749,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2704,13 +2773,13 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
+      <c r="K32" s="3">
+        <v>0</v>
       </c>
       <c r="L32" s="3" t="s">
         <v>4</v>
@@ -2718,17 +2787,17 @@
       <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" s="3">
         <v>300</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R32" s="3">
         <v>0</v>
@@ -2769,35 +2838,38 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
         <v>-100</v>
       </c>
       <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
         <v>100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
@@ -2805,11 +2877,11 @@
         <v>0</v>
       </c>
       <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
         <v>0</v>
       </c>
@@ -2855,8 +2927,11 @@
       <c r="AD33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2941,35 +3016,38 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
         <v>-100</v>
       </c>
       <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
         <v>100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
@@ -2977,11 +3055,11 @@
         <v>0</v>
       </c>
       <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
         <v>0</v>
       </c>
@@ -3027,99 +3105,105 @@
       <c r="AD35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E38" s="2">
         <v>44957</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44865</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44773</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44681</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44592</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44500</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44408</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44316</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44227</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44135</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44043</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43951</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43861</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43769</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3150,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3182,35 +3267,36 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E41" s="3">
         <v>500</v>
       </c>
       <c r="F41" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G41" s="3">
         <v>600</v>
       </c>
       <c r="H41" s="3">
+        <v>600</v>
+      </c>
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
@@ -3247,11 +3333,11 @@
       <c r="W41" s="3">
         <v>0</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y41" s="3">
-        <v>0</v>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z41" s="3">
         <v>0</v>
@@ -3268,8 +3354,11 @@
       <c r="AD41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3354,8 +3443,11 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3380,8 +3472,8 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>4</v>
+      <c r="K43" s="3">
+        <v>0</v>
       </c>
       <c r="L43" s="3" t="s">
         <v>4</v>
@@ -3398,8 +3490,8 @@
       <c r="P43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
@@ -3440,19 +3532,22 @@
       <c r="AD43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E44" s="3">
         <v>700</v>
       </c>
       <c r="F44" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G44" s="3">
         <v>800</v>
@@ -3466,8 +3561,8 @@
       <c r="J44" s="3">
         <v>800</v>
       </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
+      <c r="K44" s="3">
+        <v>800</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>4</v>
@@ -3484,8 +3579,8 @@
       <c r="P44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q44" s="3">
-        <v>0</v>
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
@@ -3526,8 +3621,11 @@
       <c r="AD44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3552,8 +3650,8 @@
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>4</v>
@@ -3570,8 +3668,8 @@
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -3588,14 +3686,14 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-      <c r="W45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="3" t="s">
-        <v>4</v>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
       </c>
       <c r="Z45" s="3" t="s">
         <v>4</v>
@@ -3612,35 +3710,38 @@
       <c r="AD45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E46" s="3">
         <v>1200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1300</v>
-      </c>
-      <c r="F46" s="3">
-        <v>1400</v>
       </c>
       <c r="G46" s="3">
         <v>1400</v>
       </c>
       <c r="H46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I46" s="3">
         <v>1300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>900</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
@@ -3698,8 +3799,11 @@
       <c r="AD46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3784,8 +3888,11 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3808,11 +3915,11 @@
         <v>0</v>
       </c>
       <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
         <v>500</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3828,8 +3935,8 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -3870,8 +3977,11 @@
       <c r="AD48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3891,13 +4001,13 @@
         <v>300</v>
       </c>
       <c r="I49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="J49" s="3">
         <v>200</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>4</v>
+      <c r="K49" s="3">
+        <v>200</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>4</v>
@@ -3914,8 +4024,8 @@
       <c r="P49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -3956,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4042,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4128,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4139,11 +4258,11 @@
       <c r="E52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>4</v>
@@ -4166,8 +4285,8 @@
       <c r="N52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -4214,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4300,35 +4422,38 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1600</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1700</v>
       </c>
       <c r="G54" s="3">
         <v>1700</v>
       </c>
       <c r="H54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I54" s="3">
         <v>1600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1700</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
         <v>0</v>
       </c>
@@ -4386,8 +4511,11 @@
       <c r="AD54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4418,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4450,8 +4579,9 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4476,8 +4606,8 @@
       <c r="J57" s="3">
         <v>0</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
+      <c r="K57" s="3">
+        <v>0</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>4</v>
@@ -4494,8 +4624,8 @@
       <c r="P57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R57" s="3">
         <v>0</v>
@@ -4536,8 +4666,11 @@
       <c r="AD57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4547,8 +4680,8 @@
       <c r="E58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="3">
-        <v>0</v>
+      <c r="F58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G58" s="3">
         <v>0</v>
@@ -4557,7 +4690,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>100</v>
@@ -4578,7 +4711,7 @@
         <v>100</v>
       </c>
       <c r="P58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -4608,13 +4741,13 @@
         <v>0</v>
       </c>
       <c r="Z58" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AA58" s="3">
         <v>400</v>
       </c>
       <c r="AB58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AC58" s="3">
         <v>300</v>
@@ -4622,8 +4755,11 @@
       <c r="AD58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4639,17 +4775,17 @@
       <c r="G59" s="3">
         <v>0</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
+      <c r="H59" s="3">
+        <v>0</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3" t="s">
         <v>4</v>
@@ -4657,8 +4793,8 @@
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O59" s="3">
         <v>0</v>
@@ -4694,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="Z59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA59" s="3">
         <v>100</v>
@@ -4708,8 +4844,11 @@
       <c r="AD59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4729,7 +4868,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J60" s="3">
         <v>100</v>
@@ -4750,7 +4889,7 @@
         <v>100</v>
       </c>
       <c r="P60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q60" s="3">
         <v>0</v>
@@ -4780,7 +4919,7 @@
         <v>0</v>
       </c>
       <c r="Z60" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AA60" s="3">
         <v>400</v>
@@ -4794,8 +4933,11 @@
       <c r="AD60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4880,8 +5022,11 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4897,17 +5042,17 @@
       <c r="G62" s="3">
         <v>100</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
+      <c r="H62" s="3">
+        <v>100</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>4</v>
+      <c r="K62" s="3">
+        <v>0</v>
       </c>
       <c r="L62" s="3" t="s">
         <v>4</v>
@@ -4924,8 +5069,8 @@
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -4966,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5052,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5138,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5224,8 +5378,11 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -5233,7 +5390,7 @@
         <v>100</v>
       </c>
       <c r="E66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F66" s="3">
         <v>200</v>
@@ -5242,10 +5399,10 @@
         <v>200</v>
       </c>
       <c r="H66" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J66" s="3">
         <v>100</v>
@@ -5266,7 +5423,7 @@
         <v>100</v>
       </c>
       <c r="P66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q66" s="3">
         <v>0</v>
@@ -5296,7 +5453,7 @@
         <v>0</v>
       </c>
       <c r="Z66" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AA66" s="3">
         <v>400</v>
@@ -5310,8 +5467,11 @@
       <c r="AD66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5342,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5428,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5514,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5600,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5686,34 +5856,37 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-4600</v>
+        <v>-4800</v>
       </c>
       <c r="E72" s="3">
         <v>-4600</v>
       </c>
       <c r="F72" s="3">
-        <v>-4400</v>
+        <v>-4600</v>
       </c>
       <c r="G72" s="3">
         <v>-4400</v>
       </c>
       <c r="H72" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="I72" s="3">
         <v>-4300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4300</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-700</v>
       </c>
       <c r="L72" s="3">
         <v>-700</v>
@@ -5728,7 +5901,7 @@
         <v>-700</v>
       </c>
       <c r="P72" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="Q72" s="3">
         <v>-600</v>
@@ -5772,8 +5945,11 @@
       <c r="AD72" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5858,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5944,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6030,34 +6212,37 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="E76" s="3">
         <v>1400</v>
       </c>
       <c r="F76" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="G76" s="3">
         <v>1500</v>
       </c>
       <c r="H76" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I76" s="3">
         <v>1600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1600</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-100</v>
       </c>
       <c r="L76" s="3">
         <v>-100</v>
@@ -6069,7 +6254,7 @@
         <v>-100</v>
       </c>
       <c r="O76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P76" s="3">
         <v>0</v>
@@ -6102,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="Z76" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="AA76" s="3">
         <v>-400</v>
@@ -6116,8 +6301,11 @@
       <c r="AD76" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE76" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6202,126 +6390,132 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45046</v>
+      </c>
+      <c r="E80" s="2">
         <v>44957</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44865</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44773</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44681</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44592</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44500</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44408</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44316</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44227</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44135</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44043</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43951</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43861</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43769</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
         <v>-100</v>
       </c>
       <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
         <v>100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
@@ -6329,11 +6523,11 @@
         <v>0</v>
       </c>
       <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
         <v>0</v>
       </c>
@@ -6379,8 +6573,11 @@
       <c r="AD81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6411,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6434,8 +6632,8 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
@@ -6452,8 +6650,8 @@
       <c r="O83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -6497,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6583,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6669,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6755,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6841,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6927,35 +7140,38 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>500</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
@@ -7013,8 +7229,11 @@
       <c r="AD89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7045,8 +7264,9 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7131,8 +7351,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7217,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7303,8 +7529,11 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7326,8 +7555,8 @@
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
@@ -7344,8 +7573,8 @@
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -7389,8 +7618,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7421,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7507,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7593,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7679,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7765,8 +8007,11 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7777,23 +8022,23 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>100</v>
       </c>
       <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -7801,25 +8046,25 @@
         <v>0</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>4</v>
+      <c r="R100" s="3">
+        <v>0</v>
       </c>
       <c r="S100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
+      <c r="T100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
@@ -7851,8 +8096,11 @@
       <c r="AD100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7937,17 +8185,20 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
@@ -7955,11 +8206,11 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>500</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -8021,6 +8272,9 @@
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/PGID_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/PGID_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="92">
   <si>
     <t>PGID</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,130 +665,134 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E7" s="2">
         <v>45046</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44957</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44865</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44773</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44681</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44592</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44500</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44408</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44316</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44227</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44135</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44043</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43951</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43861</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43769</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -814,28 +818,28 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P8" s="3">
         <v>400</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R8" s="3">
-        <v>0</v>
+      <c r="R8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S8" s="3">
         <v>0</v>
@@ -876,8 +880,11 @@
       <c r="AE8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -902,8 +909,8 @@
       <c r="J9" s="3">
         <v>0</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
+      <c r="K9" s="3">
+        <v>0</v>
       </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
@@ -965,8 +972,11 @@
       <c r="AE9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1001,8 @@
       <c r="J10" s="3">
         <v>0</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
+      <c r="K10" s="3">
+        <v>0</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
@@ -1054,8 +1064,11 @@
       <c r="AE10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,8 +1100,9 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,25 +1282,28 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
@@ -1291,12 +1311,12 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1312,8 +1332,8 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1354,22 +1374,25 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
+      <c r="E15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H15" s="3">
         <v>0</v>
@@ -1380,8 +1403,8 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>4</v>
+      <c r="K15" s="3">
+        <v>0</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>4</v>
@@ -1401,8 +1424,8 @@
       <c r="Q15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R15" s="3">
-        <v>0</v>
+      <c r="R15" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,25 +1499,26 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
-        <v>0</v>
-      </c>
       <c r="F17" s="3">
+        <v>0</v>
+      </c>
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I17" s="3">
         <v>100</v>
@@ -1500,11 +1527,11 @@
         <v>100</v>
       </c>
       <c r="K17" s="3">
+        <v>100</v>
+      </c>
+      <c r="L17" s="3">
         <v>200</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
@@ -1512,11 +1539,11 @@
         <v>0</v>
       </c>
       <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
         <v>900</v>
       </c>
-      <c r="P17" s="3">
-        <v>0</v>
-      </c>
       <c r="Q17" s="3">
         <v>0</v>
       </c>
@@ -1562,8 +1589,11 @@
       <c r="AE17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1571,16 +1601,16 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
         <v>-100</v>
@@ -1591,8 +1621,8 @@
       <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
+      <c r="L18" s="3">
+        <v>-100</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>4</v>
@@ -1600,17 +1630,17 @@
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
+      <c r="R18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S18" s="3">
         <v>0</v>
@@ -1651,8 +1681,11 @@
       <c r="AE18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,8 +1717,9 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1708,13 +1742,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
+      <c r="L20" s="3">
+        <v>0</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>4</v>
@@ -1722,17 +1756,17 @@
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
+      <c r="R20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
@@ -1773,8 +1807,11 @@
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1782,26 +1819,26 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
         <v>-100</v>
       </c>
       <c r="J21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K21" s="3">
         <v>200</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1862,8 +1899,11 @@
       <c r="AE21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1915,14 +1955,14 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>4</v>
+      <c r="T22" s="3">
+        <v>0</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
+      <c r="V22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
@@ -1951,38 +1991,41 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
         <v>-100</v>
       </c>
       <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
         <v>100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
@@ -1990,11 +2033,11 @@
         <v>0</v>
       </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
@@ -2040,8 +2083,11 @@
       <c r="AE23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2129,8 +2175,11 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,38 +2267,41 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
         <v>-100</v>
       </c>
       <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
         <v>100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
@@ -2257,11 +2309,11 @@
         <v>0</v>
       </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
@@ -2307,38 +2359,41 @@
       <c r="AE26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
         <v>-100</v>
       </c>
       <c r="J27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
         <v>100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
@@ -2346,11 +2401,11 @@
         <v>0</v>
       </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
@@ -2396,8 +2451,11 @@
       <c r="AE27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,8 +2819,11 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2776,13 +2846,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
+      <c r="L32" s="3">
+        <v>0</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>4</v>
@@ -2790,17 +2860,17 @@
       <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
+      <c r="R32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
@@ -2841,38 +2911,41 @@
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
         <v>-100</v>
       </c>
       <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
         <v>100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
@@ -2880,11 +2953,11 @@
         <v>0</v>
       </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
@@ -2930,8 +3003,11 @@
       <c r="AE33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,38 +3095,41 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
         <v>-100</v>
       </c>
       <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
         <v>100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
@@ -3058,11 +3137,11 @@
         <v>0</v>
       </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
@@ -3108,102 +3187,108 @@
       <c r="AE35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E38" s="2">
         <v>45046</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44957</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44865</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44773</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44681</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44592</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44500</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44408</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44316</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44227</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44135</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44043</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43951</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43861</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43769</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,8 +3354,9 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3277,29 +3364,29 @@
         <v>400</v>
       </c>
       <c r="E41" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F41" s="3">
         <v>500</v>
       </c>
       <c r="G41" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H41" s="3">
         <v>600</v>
       </c>
       <c r="I41" s="3">
+        <v>600</v>
+      </c>
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -3336,11 +3423,11 @@
       <c r="X41" s="3">
         <v>0</v>
       </c>
-      <c r="Y41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z41" s="3">
-        <v>0</v>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA41" s="3">
         <v>0</v>
@@ -3357,8 +3444,11 @@
       <c r="AE41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,8 +3536,11 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3475,8 +3568,8 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>4</v>
+      <c r="L43" s="3">
+        <v>0</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>4</v>
@@ -3493,8 +3586,8 @@
       <c r="Q43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R43" s="3">
-        <v>0</v>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -3535,8 +3628,11 @@
       <c r="AE43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3544,13 +3640,13 @@
         <v>600</v>
       </c>
       <c r="E44" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F44" s="3">
         <v>700</v>
       </c>
       <c r="G44" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H44" s="3">
         <v>800</v>
@@ -3564,8 +3660,8 @@
       <c r="K44" s="3">
         <v>800</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
+      <c r="L44" s="3">
+        <v>800</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>4</v>
@@ -3582,8 +3678,8 @@
       <c r="Q44" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R44" s="3">
-        <v>0</v>
+      <c r="R44" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
@@ -3624,8 +3720,11 @@
       <c r="AE44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3653,8 +3752,8 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
@@ -3671,8 +3770,8 @@
       <c r="Q45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R45" s="3">
-        <v>0</v>
+      <c r="R45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -3689,14 +3788,14 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-      <c r="X45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="3" t="s">
-        <v>4</v>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
       </c>
       <c r="AA45" s="3" t="s">
         <v>4</v>
@@ -3713,38 +3812,41 @@
       <c r="AE45" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1300</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1400</v>
       </c>
       <c r="H46" s="3">
         <v>1400</v>
       </c>
       <c r="I46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J46" s="3">
         <v>1300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>900</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
@@ -3802,8 +3904,11 @@
       <c r="AE46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3891,8 +3996,11 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3918,11 +4026,11 @@
         <v>0</v>
       </c>
       <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
         <v>500</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
@@ -3938,8 +4046,8 @@
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R48" s="3">
-        <v>0</v>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S48" s="3">
         <v>0</v>
@@ -3980,8 +4088,11 @@
       <c r="AE48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4004,13 +4115,13 @@
         <v>300</v>
       </c>
       <c r="J49" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K49" s="3">
         <v>200</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>4</v>
+      <c r="L49" s="3">
+        <v>200</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>4</v>
@@ -4027,8 +4138,8 @@
       <c r="Q49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4261,11 +4381,11 @@
       <c r="F52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>4</v>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>4</v>
@@ -4288,8 +4408,8 @@
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,8 +4548,11 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -4434,29 +4560,29 @@
         <v>1300</v>
       </c>
       <c r="E54" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F54" s="3">
         <v>1500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1600</v>
-      </c>
-      <c r="G54" s="3">
-        <v>1700</v>
       </c>
       <c r="H54" s="3">
         <v>1700</v>
       </c>
       <c r="I54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J54" s="3">
         <v>1600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1700</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
@@ -4514,8 +4640,11 @@
       <c r="AE54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,8 +4710,9 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -4609,8 +4740,8 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
+      <c r="L57" s="3">
+        <v>0</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>4</v>
@@ -4627,8 +4758,8 @@
       <c r="Q57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
+      <c r="R57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S57" s="3">
         <v>0</v>
@@ -4669,13 +4800,16 @@
       <c r="AE57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>4</v>
+      <c r="D58" s="3">
+        <v>0</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>4</v>
@@ -4683,8 +4817,8 @@
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H58" s="3">
         <v>0</v>
@@ -4693,7 +4827,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
@@ -4714,7 +4848,7 @@
         <v>100</v>
       </c>
       <c r="Q58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R58" s="3">
         <v>0</v>
@@ -4744,13 +4878,13 @@
         <v>0</v>
       </c>
       <c r="AA58" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AB58" s="3">
         <v>400</v>
       </c>
       <c r="AC58" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AD58" s="3">
         <v>300</v>
@@ -4758,8 +4892,11 @@
       <c r="AE58" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4778,17 +4915,17 @@
       <c r="H59" s="3">
         <v>0</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
+      <c r="I59" s="3">
+        <v>0</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>4</v>
@@ -4796,8 +4933,8 @@
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -4833,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="AA59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB59" s="3">
         <v>100</v>
@@ -4847,8 +4984,11 @@
       <c r="AE59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4871,7 +5011,7 @@
         <v>0</v>
       </c>
       <c r="J60" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K60" s="3">
         <v>100</v>
@@ -4892,7 +5032,7 @@
         <v>100</v>
       </c>
       <c r="Q60" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R60" s="3">
         <v>0</v>
@@ -4922,7 +5062,7 @@
         <v>0</v>
       </c>
       <c r="AA60" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AB60" s="3">
         <v>400</v>
@@ -4936,28 +5076,31 @@
       <c r="AE60" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF60" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -5025,37 +5168,40 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>100</v>
-      </c>
-      <c r="E62" s="3">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G62" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H62" s="3">
-        <v>100</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>4</v>
@@ -5072,8 +5218,8 @@
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,8 +5536,11 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -5393,7 +5551,7 @@
         <v>100</v>
       </c>
       <c r="F66" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G66" s="3">
         <v>200</v>
@@ -5402,10 +5560,10 @@
         <v>200</v>
       </c>
       <c r="I66" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J66" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K66" s="3">
         <v>100</v>
@@ -5426,7 +5584,7 @@
         <v>100</v>
       </c>
       <c r="Q66" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R66" s="3">
         <v>0</v>
@@ -5456,7 +5614,7 @@
         <v>0</v>
       </c>
       <c r="AA66" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="AB66" s="3">
         <v>400</v>
@@ -5470,8 +5628,11 @@
       <c r="AE66" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF66" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,8 +6030,11 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -5868,28 +6042,28 @@
         <v>-4800</v>
       </c>
       <c r="E72" s="3">
-        <v>-4600</v>
+        <v>-4800</v>
       </c>
       <c r="F72" s="3">
         <v>-4600</v>
       </c>
       <c r="G72" s="3">
-        <v>-4400</v>
+        <v>-4600</v>
       </c>
       <c r="H72" s="3">
         <v>-4400</v>
       </c>
       <c r="I72" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="J72" s="3">
         <v>-4300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4300</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-700</v>
       </c>
       <c r="M72" s="3">
         <v>-700</v>
@@ -5904,7 +6078,7 @@
         <v>-700</v>
       </c>
       <c r="Q72" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="R72" s="3">
         <v>-600</v>
@@ -5948,8 +6122,11 @@
       <c r="AE72" s="3">
         <v>-600</v>
       </c>
-    </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF72" s="3">
+        <v>-600</v>
+      </c>
+    </row>
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,8 +6398,11 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -6224,28 +6410,28 @@
         <v>1200</v>
       </c>
       <c r="E76" s="3">
-        <v>1400</v>
+        <v>1200</v>
       </c>
       <c r="F76" s="3">
         <v>1400</v>
       </c>
       <c r="G76" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H76" s="3">
         <v>1500</v>
       </c>
       <c r="I76" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J76" s="3">
         <v>1600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1600</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-100</v>
       </c>
       <c r="M76" s="3">
         <v>-100</v>
@@ -6257,7 +6443,7 @@
         <v>-100</v>
       </c>
       <c r="P76" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q76" s="3">
         <v>0</v>
@@ -6290,7 +6476,7 @@
         <v>0</v>
       </c>
       <c r="AA76" s="3">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="AB76" s="3">
         <v>-400</v>
@@ -6304,8 +6490,11 @@
       <c r="AE76" s="3">
         <v>-400</v>
       </c>
-    </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF76" s="3">
+        <v>-400</v>
+      </c>
+    </row>
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,132 +6582,138 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45138</v>
+      </c>
+      <c r="E80" s="2">
         <v>45046</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44957</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44865</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44773</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44681</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44592</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44500</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44408</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44316</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44227</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44135</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44043</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43951</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43861</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43769</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
         <v>-100</v>
       </c>
       <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
         <v>100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
@@ -6526,11 +6721,11 @@
         <v>0</v>
       </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
@@ -6576,8 +6771,11 @@
       <c r="AE81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6635,8 +6834,8 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>4</v>
@@ -6653,8 +6852,8 @@
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,8 +7357,11 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -7152,29 +7369,29 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>500</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
@@ -7232,8 +7449,11 @@
       <c r="AE89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,8 +7485,9 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -7354,8 +7575,11 @@
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,8 +7759,11 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7550,7 +7780,7 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="I94" s="3">
         <v>0</v>
@@ -7558,8 +7788,8 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
@@ -7576,8 +7806,8 @@
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -7621,8 +7851,11 @@
       <c r="AE94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,8 +8253,11 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -8025,23 +8271,23 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
       </c>
       <c r="I100" s="3">
+        <v>100</v>
+      </c>
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -8049,25 +8295,25 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
-      <c r="S100" s="3" t="s">
-        <v>4</v>
+      <c r="S100" s="3">
+        <v>0</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
+      <c r="U100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V100" s="3">
         <v>0</v>
@@ -8099,8 +8345,11 @@
       <c r="AE100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,8 +8437,11 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -8197,11 +8449,11 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -8209,11 +8461,11 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>500</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -8275,6 +8527,9 @@
         <v>0</v>
       </c>
       <c r="AE102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="3">
         <v>0</v>
       </c>
     </row>
